--- a/instances/data_from_wahyu/dummy_data_small.xlsx
+++ b/instances/data_from_wahyu/dummy_data_small.xlsx
@@ -1,18 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wei\Documents\python_codes\clp-project\instances\data_from_wahyu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD63835-4A07-4D30-B3FD-76AD36261FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Item" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Container" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Item" sheetId="1" r:id="rId1"/>
+    <sheet name="Container" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -21,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,11 +61,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">price per cbm</t>
+          <t>price per cbm</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +86,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Total price</t>
+          <t>Total price</t>
         </r>
       </text>
     </comment>
@@ -83,83 +97,65 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
-    <t xml:space="preserve">Item</t>
+    <t>Item</t>
   </si>
   <si>
-    <t xml:space="preserve">length</t>
+    <t>length</t>
   </si>
   <si>
-    <t xml:space="preserve">width</t>
+    <t>width</t>
   </si>
   <si>
-    <t xml:space="preserve">high</t>
+    <t>price</t>
   </si>
   <si>
-    <t xml:space="preserve">price</t>
+    <t>weight</t>
   </si>
   <si>
-    <t xml:space="preserve">weight</t>
+    <t>value</t>
   </si>
   <si>
-    <t xml:space="preserve">value</t>
+    <t>ratio</t>
   </si>
   <si>
-    <t xml:space="preserve">ratio</t>
+    <t>vol</t>
   </si>
   <si>
-    <t xml:space="preserve">vol</t>
+    <t>qty</t>
   </si>
   <si>
-    <t xml:space="preserve">qty</t>
+    <t>Container</t>
   </si>
   <si>
-    <t xml:space="preserve">Container</t>
+    <t>teta</t>
   </si>
   <si>
-    <t xml:space="preserve">teta</t>
+    <t>volume</t>
   </si>
   <si>
-    <t xml:space="preserve">volume</t>
+    <t>e</t>
   </si>
   <si>
-    <t xml:space="preserve">e</t>
+    <t>num</t>
   </si>
   <si>
-    <t xml:space="preserve">num</t>
+    <t>height</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0.000000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -171,7 +167,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Var(--jp-code-font-family)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -204,7 +199,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -212,72 +207,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -291,6 +237,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -349,4601 +296,4896 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1008"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="12.57"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>32.3951478682995</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>278.782714285714</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">PRODUCT(B2:E2)</f>
-        <v>64.790295736599</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <f aca="false">E2/PRODUCT(B2:D2)</f>
-        <v>16.1975739341498</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <f aca="false">PRODUCT(B2:D2)</f>
+      <c r="E2">
+        <v>32.395147868299503</v>
+      </c>
+      <c r="F2">
+        <v>278.78271428571401</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G8" si="0">PRODUCT(B2:E2)</f>
+        <v>64.790295736599006</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H8" si="1">E2/PRODUCT(B2:D2)</f>
+        <v>16.197573934149752</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I8" si="2">PRODUCT(B2:D2)</f>
         <v>2</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>1</v>
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <f aca="false">A2+1</f>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A8" si="3">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>32.3951478682995</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>82.6022857142857</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">PRODUCT(B3:E3)</f>
-        <v>259.161182946396</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <f aca="false">E3/PRODUCT(B3:D3)</f>
-        <v>4.04939348353744</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <f aca="false">PRODUCT(B3:D3)</f>
+      <c r="E3">
+        <v>32.395147868299503</v>
+      </c>
+      <c r="F3">
+        <v>82.602285714285699</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>259.16118294639602</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>4.0493934835374379</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="4">
         <v>1</v>
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <f aca="false">A3+1</f>
+    <row r="4" spans="1:20">
+      <c r="A4" s="2">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>32.3951478682995</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>448.347428571429</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">PRODUCT(B4:E4)</f>
-        <v>388.741774419594</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <f aca="false">E4/PRODUCT(B4:D4)</f>
-        <v>2.69959565569163</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <f aca="false">PRODUCT(B4:D4)</f>
+      <c r="E4">
+        <v>32.395147868299503</v>
+      </c>
+      <c r="F4">
+        <v>448.34742857142902</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>388.74177441959404</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>2.6995956556916254</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <f aca="false">A4+1</f>
+    <row r="5" spans="1:20">
+      <c r="A5" s="2">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>32.3951478682995</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>7.00542857142857</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">PRODUCT(B5:E5)</f>
-        <v>32.3951478682995</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <f aca="false">E5/PRODUCT(B5:D5)</f>
-        <v>32.3951478682995</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <f aca="false">PRODUCT(B5:D5)</f>
+      <c r="E5">
+        <v>32.395147868299503</v>
+      </c>
+      <c r="F5">
+        <v>7.0054285714285696</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>32.395147868299503</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>32.395147868299503</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>1</v>
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <f aca="false">A5+1</f>
+    <row r="6" spans="1:20">
+      <c r="A6" s="2">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>32.3951478682995</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>7.00542857142857</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">PRODUCT(B6:E6)</f>
-        <v>32.3951478682995</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <f aca="false">E6/PRODUCT(B6:D6)</f>
-        <v>32.3951478682995</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <f aca="false">PRODUCT(B6:D6)</f>
+      <c r="E6">
+        <v>32.395147868299503</v>
+      </c>
+      <c r="F6">
+        <v>7.0054285714285696</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>32.395147868299503</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>32.395147868299503</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>1</v>
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <f aca="false">A6+1</f>
+    <row r="7" spans="1:20">
+      <c r="A7" s="2">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>32.3951478682995</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>7.00542857142857</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">PRODUCT(B7:E7)</f>
-        <v>129.580591473198</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <f aca="false">E7/PRODUCT(B7:D7)</f>
-        <v>8.09878696707488</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <f aca="false">PRODUCT(B7:D7)</f>
+      <c r="E7">
+        <v>32.395147868299503</v>
+      </c>
+      <c r="F7">
+        <v>7.0054285714285696</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>129.58059147319801</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>8.0987869670748758</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <f aca="false">A7+1</f>
+    <row r="8" spans="1:20">
+      <c r="A8" s="2">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>32.3951478682995</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>7.00542857142857</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">PRODUCT(B8:E8)</f>
-        <v>32.3951478682995</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <f aca="false">E8/PRODUCT(B8:D8)</f>
-        <v>32.3951478682995</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <f aca="false">PRODUCT(B8:D8)</f>
+      <c r="E8">
+        <v>32.395147868299503</v>
+      </c>
+      <c r="F8">
+        <v>7.0054285714285696</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>32.395147868299503</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>32.395147868299503</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="J8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:20">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:20">
       <c r="A10" s="2"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:20">
       <c r="A11" s="2"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
       <c r="J11" s="4"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:20">
       <c r="A12" s="2"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:20">
       <c r="A13" s="2"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
       <c r="J13" s="4"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:20">
       <c r="A14" s="2"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:20">
       <c r="A15" s="2"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
       <c r="J15" s="4"/>
       <c r="T15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:20">
       <c r="A16" s="2"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10">
       <c r="A17" s="2"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10">
       <c r="A18" s="2"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10">
       <c r="A19" s="2"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10">
       <c r="A20" s="2"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10">
       <c r="A21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="6"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10">
       <c r="A22" s="2"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10">
       <c r="A23" s="2"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10">
       <c r="A24" s="2"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10">
       <c r="A25" s="2"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10">
       <c r="A26" s="2"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10">
       <c r="A27" s="2"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10">
       <c r="A28" s="2"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10">
       <c r="A29" s="2"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:10">
       <c r="A30" s="2"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:10">
       <c r="A31" s="2"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:10">
       <c r="A32" s="2"/>
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10">
       <c r="A33" s="2"/>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10">
       <c r="A34" s="2"/>
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10">
       <c r="A35" s="2"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10">
       <c r="A36" s="2"/>
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:10">
       <c r="A37" s="2"/>
       <c r="E37" s="5"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:10">
       <c r="A38" s="2"/>
       <c r="E38" s="5"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:10">
       <c r="A39" s="2"/>
       <c r="E39" s="5"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:10">
       <c r="A40" s="2"/>
       <c r="E40" s="5"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:10">
       <c r="A41" s="2"/>
       <c r="E41" s="5"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:10">
       <c r="A42" s="2"/>
       <c r="E42" s="5"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:10">
       <c r="A43" s="2"/>
       <c r="E43" s="5"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:10">
       <c r="A44" s="2"/>
       <c r="E44" s="5"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:10">
       <c r="A45" s="2"/>
       <c r="E45" s="5"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:10">
       <c r="A46" s="2"/>
       <c r="E46" s="5"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:10">
       <c r="A47" s="2"/>
       <c r="E47" s="5"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:10">
       <c r="A48" s="2"/>
       <c r="E48" s="5"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:10">
       <c r="A49" s="2"/>
       <c r="E49" s="5"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:10">
       <c r="A50" s="2"/>
       <c r="E50" s="5"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:10">
       <c r="A51" s="2"/>
       <c r="E51" s="5"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:10">
       <c r="A52" s="2"/>
       <c r="E52" s="5"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:10">
       <c r="A53" s="2"/>
       <c r="E53" s="5"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:10">
       <c r="A54" s="2"/>
       <c r="E54" s="5"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:10">
       <c r="A55" s="2"/>
       <c r="E55" s="5"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:10">
       <c r="A56" s="2"/>
       <c r="E56" s="5"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:10">
       <c r="A57" s="2"/>
       <c r="E57" s="5"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:10">
       <c r="A58" s="2"/>
       <c r="E58" s="5"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:10">
       <c r="A59" s="2"/>
       <c r="E59" s="5"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:10">
       <c r="A60" s="2"/>
       <c r="E60" s="5"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:10">
       <c r="A61" s="2"/>
       <c r="E61" s="5"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:10">
       <c r="A62" s="2"/>
       <c r="E62" s="5"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:10">
       <c r="A63" s="2"/>
       <c r="E63" s="5"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:10">
       <c r="A64" s="2"/>
       <c r="E64" s="5"/>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:10">
       <c r="A65" s="2"/>
       <c r="E65" s="5"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:10">
       <c r="A66" s="2"/>
       <c r="E66" s="5"/>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:10">
       <c r="A67" s="2"/>
       <c r="E67" s="5"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:10">
       <c r="A68" s="2"/>
       <c r="E68" s="5"/>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:10">
       <c r="A69" s="2"/>
       <c r="E69" s="5"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:10">
       <c r="A70" s="2"/>
       <c r="E70" s="5"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:10">
       <c r="A71" s="2"/>
       <c r="E71" s="5"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:10">
       <c r="A72" s="2"/>
       <c r="E72" s="5"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:10">
       <c r="A73" s="2"/>
       <c r="E73" s="5"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:10">
       <c r="A74" s="2"/>
       <c r="E74" s="5"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:10">
       <c r="A75" s="2"/>
       <c r="E75" s="5"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:10">
       <c r="A76" s="2"/>
       <c r="E76" s="5"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:10">
       <c r="A77" s="2"/>
       <c r="E77" s="5"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:10">
       <c r="A78" s="2"/>
       <c r="E78" s="5"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:10">
       <c r="A79" s="2"/>
       <c r="E79" s="5"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:10">
       <c r="A80" s="2"/>
       <c r="E80" s="5"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:10">
       <c r="A81" s="2"/>
       <c r="E81" s="5"/>
       <c r="J81" s="4"/>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:10">
       <c r="A82" s="2"/>
       <c r="E82" s="5"/>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:10">
       <c r="A83" s="2"/>
       <c r="E83" s="5"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:10">
       <c r="A84" s="2"/>
       <c r="E84" s="5"/>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:10">
       <c r="A85" s="2"/>
       <c r="E85" s="5"/>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:10">
       <c r="A86" s="2"/>
       <c r="E86" s="5"/>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:10">
       <c r="A87" s="2"/>
       <c r="E87" s="5"/>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:10">
       <c r="A88" s="2"/>
       <c r="E88" s="5"/>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:10">
       <c r="A89" s="2"/>
       <c r="E89" s="5"/>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:10">
       <c r="A90" s="2"/>
       <c r="E90" s="5"/>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:10">
       <c r="A91" s="2"/>
       <c r="E91" s="5"/>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:10">
       <c r="A92" s="2"/>
       <c r="E92" s="5"/>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:10">
       <c r="A93" s="2"/>
       <c r="E93" s="5"/>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:10">
       <c r="A94" s="2"/>
       <c r="E94" s="5"/>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:10">
       <c r="A95" s="2"/>
       <c r="E95" s="5"/>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:10">
       <c r="A96" s="2"/>
       <c r="E96" s="5"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:10">
       <c r="A97" s="2"/>
       <c r="E97" s="5"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:10">
       <c r="A98" s="2"/>
       <c r="E98" s="5"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:10">
       <c r="A99" s="2"/>
       <c r="E99" s="5"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:10">
       <c r="A100" s="2"/>
       <c r="E100" s="5"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:10">
       <c r="A101" s="2"/>
       <c r="E101" s="5"/>
       <c r="J101" s="4"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:10">
       <c r="A102" s="2"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:10">
       <c r="A103" s="2"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:10">
       <c r="A104" s="2"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:10">
       <c r="A105" s="2"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:10">
       <c r="A106" s="2"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:10">
       <c r="A107" s="2"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:10">
       <c r="A108" s="2"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:10">
       <c r="A109" s="2"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:10">
       <c r="A110" s="2"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:10">
       <c r="A111" s="2"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:10">
       <c r="A112" s="2"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:10">
       <c r="A113" s="2"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:10">
       <c r="A114" s="2"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:10">
       <c r="A115" s="2"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:10">
       <c r="A116" s="2"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:10">
       <c r="A117" s="2"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:10">
       <c r="A118" s="2"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:10">
       <c r="A119" s="2"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:10">
       <c r="A120" s="2"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:10">
       <c r="A121" s="2"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:10">
       <c r="A122" s="2"/>
       <c r="J122" s="4"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:10">
       <c r="A123" s="2"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:10">
       <c r="A124" s="2"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:10">
       <c r="A125" s="2"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:10">
       <c r="A126" s="2"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:10">
       <c r="A127" s="2"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:10">
       <c r="A128" s="2"/>
       <c r="J128" s="4"/>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:10">
       <c r="A129" s="2"/>
       <c r="J129" s="4"/>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:10">
       <c r="A130" s="2"/>
       <c r="J130" s="4"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:10">
       <c r="A131" s="2"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:10">
       <c r="A132" s="2"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:10">
       <c r="A133" s="2"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:10">
       <c r="A134" s="2"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:10">
       <c r="A135" s="2"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:10">
       <c r="A136" s="2"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:10">
       <c r="A137" s="2"/>
       <c r="J137" s="4"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:10">
       <c r="A138" s="2"/>
       <c r="J138" s="4"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:10">
       <c r="A139" s="2"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:10">
       <c r="A140" s="2"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:10">
       <c r="A141" s="2"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:10">
       <c r="A142" s="2"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:10">
       <c r="A143" s="2"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:10">
       <c r="A144" s="2"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:10">
       <c r="A145" s="2"/>
       <c r="J145" s="4"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:10">
       <c r="A146" s="2"/>
       <c r="J146" s="4"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:10">
       <c r="A147" s="2"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:10">
       <c r="A148" s="2"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:10">
       <c r="A149" s="2"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:10">
       <c r="A150" s="2"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:10">
       <c r="A151" s="2"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:10">
       <c r="A152" s="2"/>
       <c r="J152" s="4"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:10">
       <c r="A153" s="2"/>
       <c r="J153" s="4"/>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:10">
       <c r="A154" s="2"/>
       <c r="J154" s="4"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:10">
       <c r="A155" s="2"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:10">
       <c r="A156" s="2"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:10">
       <c r="A157" s="2"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:10">
       <c r="A158" s="2"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:10">
       <c r="A159" s="2"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:10">
       <c r="A160" s="2"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:10">
       <c r="A161" s="2"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:10">
       <c r="A162" s="2"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:10">
       <c r="A163" s="2"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:10">
       <c r="A164" s="2"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:10">
       <c r="A165" s="2"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:10">
       <c r="A166" s="2"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:10">
       <c r="A167" s="2"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:10">
       <c r="A168" s="2"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:10">
       <c r="A169" s="2"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:10">
       <c r="A170" s="2"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:10">
       <c r="A171" s="2"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:10">
       <c r="A172" s="2"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:10">
       <c r="A173" s="2"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:10">
       <c r="A174" s="2"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:10">
       <c r="A175" s="2"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:10">
       <c r="A176" s="2"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:10">
       <c r="A177" s="2"/>
       <c r="J177" s="4"/>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:10">
       <c r="A178" s="2"/>
       <c r="J178" s="4"/>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:10">
       <c r="A179" s="2"/>
       <c r="J179" s="4"/>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:10">
       <c r="A180" s="2"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:10">
       <c r="A181" s="2"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:10">
       <c r="A182" s="2"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:10">
       <c r="A183" s="2"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:10">
       <c r="A184" s="2"/>
       <c r="J184" s="4"/>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:10">
       <c r="A185" s="2"/>
       <c r="J185" s="4"/>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:10">
       <c r="A186" s="2"/>
       <c r="J186" s="4"/>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:10">
       <c r="A187" s="2"/>
       <c r="J187" s="4"/>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:10">
       <c r="A188" s="2"/>
       <c r="J188" s="4"/>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:10">
       <c r="A189" s="2"/>
       <c r="J189" s="4"/>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:10">
       <c r="A190" s="2"/>
       <c r="J190" s="4"/>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:10">
       <c r="A191" s="2"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:10">
       <c r="A192" s="2"/>
       <c r="J192" s="4"/>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:10">
       <c r="A193" s="2"/>
       <c r="J193" s="4"/>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:10">
       <c r="A194" s="2"/>
       <c r="J194" s="4"/>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:10">
       <c r="A195" s="2"/>
       <c r="J195" s="4"/>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:10">
       <c r="A196" s="2"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:10">
       <c r="A197" s="2"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:10">
       <c r="A198" s="2"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:10">
       <c r="A199" s="2"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:10">
       <c r="A200" s="2"/>
       <c r="J200" s="4"/>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:10">
       <c r="A201" s="2"/>
       <c r="J201" s="4"/>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:10">
       <c r="A202" s="2"/>
       <c r="J202" s="4"/>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:10">
       <c r="A203" s="2"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:10">
       <c r="A204" s="2"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:10">
       <c r="A205" s="2"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:10">
       <c r="A206" s="2"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:10">
       <c r="A207" s="2"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:10">
       <c r="A208" s="2"/>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:10">
       <c r="A209" s="2"/>
       <c r="J209" s="4"/>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:10">
       <c r="A210" s="2"/>
       <c r="J210" s="4"/>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:10">
       <c r="A211" s="2"/>
       <c r="J211" s="4"/>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:10">
       <c r="A212" s="2"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:10">
       <c r="A213" s="2"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:10">
       <c r="A214" s="2"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:10">
       <c r="A215" s="2"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:10">
       <c r="A216" s="2"/>
       <c r="J216" s="4"/>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:10">
       <c r="A217" s="2"/>
       <c r="J217" s="4"/>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:10">
       <c r="A218" s="2"/>
       <c r="J218" s="4"/>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:10">
       <c r="A219" s="2"/>
       <c r="J219" s="4"/>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:10">
       <c r="A220" s="2"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:10">
       <c r="A221" s="2"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:10">
       <c r="A222" s="2"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:10">
       <c r="A223" s="2"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:10">
       <c r="A224" s="2"/>
       <c r="J224" s="4"/>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:10">
       <c r="A225" s="2"/>
       <c r="J225" s="4"/>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:10">
       <c r="A226" s="2"/>
       <c r="J226" s="4"/>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:10">
       <c r="A227" s="2"/>
       <c r="J227" s="4"/>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:10">
       <c r="A228" s="2"/>
       <c r="J228" s="4"/>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:10">
       <c r="A229" s="2"/>
       <c r="J229" s="4"/>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:10">
       <c r="A230" s="2"/>
       <c r="J230" s="4"/>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:10">
       <c r="A231" s="2"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:10">
       <c r="A232" s="2"/>
       <c r="J232" s="4"/>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:10">
       <c r="A233" s="2"/>
       <c r="J233" s="4"/>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:10">
       <c r="A234" s="2"/>
       <c r="J234" s="4"/>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:10">
       <c r="A235" s="2"/>
       <c r="J235" s="4"/>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:10">
       <c r="A236" s="2"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:10">
       <c r="A237" s="2"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:10">
       <c r="A238" s="2"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:10">
       <c r="A239" s="2"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:10">
       <c r="A240" s="2"/>
       <c r="J240" s="4"/>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:10">
       <c r="A241" s="2"/>
       <c r="J241" s="4"/>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:10">
       <c r="A242" s="2"/>
       <c r="J242" s="4"/>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:10">
       <c r="A243" s="2"/>
       <c r="J243" s="4"/>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:10">
       <c r="A244" s="2"/>
       <c r="J244" s="4"/>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:10">
       <c r="A245" s="2"/>
       <c r="J245" s="4"/>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:10">
       <c r="A246" s="2"/>
       <c r="J246" s="4"/>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:10">
       <c r="A247" s="2"/>
       <c r="J247" s="4"/>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:10">
       <c r="A248" s="2"/>
       <c r="J248" s="4"/>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:10">
       <c r="A249" s="2"/>
       <c r="J249" s="4"/>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:10">
       <c r="A250" s="2"/>
       <c r="J250" s="4"/>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:10">
       <c r="A251" s="2"/>
       <c r="J251" s="4"/>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:10">
       <c r="A252" s="2"/>
       <c r="J252" s="4"/>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:10">
       <c r="A253" s="2"/>
       <c r="J253" s="4"/>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:10">
       <c r="A254" s="2"/>
       <c r="J254" s="4"/>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:10">
       <c r="A255" s="2"/>
       <c r="J255" s="4"/>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:10">
       <c r="A256" s="2"/>
       <c r="J256" s="4"/>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:10">
       <c r="A257" s="2"/>
       <c r="J257" s="4"/>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:10">
       <c r="A258" s="2"/>
       <c r="J258" s="4"/>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:10">
       <c r="A259" s="2"/>
       <c r="J259" s="4"/>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:10">
       <c r="A260" s="2"/>
       <c r="J260" s="4"/>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:10">
       <c r="A261" s="2"/>
       <c r="J261" s="4"/>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:10">
       <c r="A262" s="2"/>
       <c r="J262" s="4"/>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:10">
       <c r="A263" s="2"/>
       <c r="J263" s="4"/>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:10">
       <c r="A264" s="2"/>
       <c r="J264" s="4"/>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:10">
       <c r="A265" s="2"/>
       <c r="J265" s="4"/>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:10">
       <c r="A266" s="2"/>
       <c r="J266" s="4"/>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:10">
       <c r="A267" s="2"/>
       <c r="J267" s="4"/>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:10">
       <c r="A268" s="2"/>
       <c r="J268" s="4"/>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:10">
       <c r="A269" s="2"/>
       <c r="J269" s="4"/>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:10">
       <c r="A270" s="2"/>
       <c r="J270" s="4"/>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:10">
       <c r="A271" s="2"/>
       <c r="J271" s="4"/>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:10">
       <c r="A272" s="2"/>
       <c r="J272" s="4"/>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:10">
       <c r="A273" s="2"/>
       <c r="J273" s="4"/>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:10">
       <c r="A274" s="2"/>
       <c r="J274" s="4"/>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:10">
       <c r="A275" s="2"/>
       <c r="J275" s="4"/>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:10">
       <c r="A276" s="2"/>
       <c r="J276" s="4"/>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:10">
       <c r="A277" s="2"/>
       <c r="J277" s="4"/>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:10">
       <c r="A278" s="2"/>
       <c r="J278" s="4"/>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:10">
       <c r="A279" s="2"/>
       <c r="J279" s="4"/>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:10">
       <c r="A280" s="2"/>
       <c r="J280" s="4"/>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:10">
       <c r="A281" s="2"/>
       <c r="J281" s="4"/>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:10">
       <c r="A282" s="2"/>
       <c r="J282" s="4"/>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:10">
       <c r="A283" s="2"/>
       <c r="J283" s="4"/>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:10">
       <c r="A284" s="2"/>
       <c r="J284" s="4"/>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:10">
       <c r="A285" s="2"/>
       <c r="J285" s="4"/>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:10">
       <c r="A286" s="2"/>
       <c r="J286" s="4"/>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:10">
       <c r="A287" s="2"/>
       <c r="J287" s="4"/>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:10">
       <c r="A288" s="2"/>
       <c r="J288" s="4"/>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:10">
       <c r="A289" s="2"/>
       <c r="J289" s="4"/>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:10">
       <c r="A290" s="2"/>
       <c r="J290" s="4"/>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:10">
       <c r="A291" s="2"/>
       <c r="J291" s="4"/>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:10">
       <c r="A292" s="2"/>
       <c r="J292" s="4"/>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:10">
       <c r="A293" s="2"/>
       <c r="J293" s="4"/>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:10">
       <c r="A294" s="2"/>
       <c r="J294" s="4"/>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:10">
       <c r="A295" s="2"/>
       <c r="J295" s="4"/>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:10">
       <c r="A296" s="2"/>
       <c r="J296" s="4"/>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:10">
       <c r="A297" s="2"/>
       <c r="J297" s="4"/>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:10">
       <c r="A298" s="2"/>
       <c r="J298" s="4"/>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:10">
       <c r="A299" s="2"/>
       <c r="J299" s="4"/>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:10">
       <c r="A300" s="2"/>
       <c r="J300" s="4"/>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:10">
       <c r="A301" s="2"/>
       <c r="J301" s="4"/>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:10">
       <c r="A302" s="2"/>
       <c r="J302" s="4"/>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:10">
       <c r="A303" s="2"/>
       <c r="J303" s="4"/>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:10">
       <c r="A304" s="2"/>
       <c r="J304" s="4"/>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:10">
       <c r="A305" s="2"/>
       <c r="J305" s="4"/>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:10">
       <c r="A306" s="2"/>
       <c r="J306" s="4"/>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:10">
       <c r="A307" s="2"/>
       <c r="J307" s="4"/>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:10">
       <c r="A308" s="2"/>
       <c r="J308" s="4"/>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:10">
       <c r="A309" s="2"/>
       <c r="J309" s="4"/>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:10">
       <c r="A310" s="2"/>
       <c r="J310" s="4"/>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:10">
       <c r="A311" s="2"/>
       <c r="J311" s="4"/>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:10">
       <c r="A312" s="2"/>
       <c r="J312" s="4"/>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:10">
       <c r="A313" s="2"/>
       <c r="J313" s="4"/>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:10">
       <c r="A314" s="2"/>
       <c r="J314" s="4"/>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:10">
       <c r="A315" s="2"/>
       <c r="J315" s="4"/>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:10">
       <c r="A316" s="2"/>
       <c r="J316" s="4"/>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:10">
       <c r="A317" s="2"/>
       <c r="J317" s="4"/>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:10">
       <c r="A318" s="2"/>
       <c r="J318" s="4"/>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:10">
       <c r="A319" s="2"/>
       <c r="J319" s="4"/>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:10">
       <c r="A320" s="2"/>
       <c r="J320" s="4"/>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:10">
       <c r="A321" s="2"/>
       <c r="J321" s="4"/>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:10">
       <c r="A322" s="2"/>
       <c r="J322" s="4"/>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:10">
       <c r="A323" s="2"/>
       <c r="J323" s="4"/>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:10">
       <c r="A324" s="2"/>
       <c r="J324" s="4"/>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:10">
       <c r="A325" s="2"/>
       <c r="J325" s="4"/>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:10">
       <c r="A326" s="2"/>
       <c r="J326" s="4"/>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:10">
       <c r="A327" s="2"/>
       <c r="J327" s="4"/>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:10">
       <c r="A328" s="2"/>
       <c r="J328" s="4"/>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:10">
       <c r="A329" s="2"/>
       <c r="J329" s="4"/>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:10">
       <c r="A330" s="2"/>
       <c r="J330" s="4"/>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:10">
       <c r="A331" s="2"/>
       <c r="J331" s="4"/>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:10">
       <c r="A332" s="2"/>
       <c r="J332" s="4"/>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:10">
       <c r="A333" s="2"/>
       <c r="J333" s="4"/>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:10">
       <c r="A334" s="2"/>
       <c r="J334" s="4"/>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:10">
       <c r="A335" s="2"/>
       <c r="J335" s="4"/>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:10">
       <c r="A336" s="2"/>
       <c r="J336" s="4"/>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:10">
       <c r="A337" s="2"/>
       <c r="J337" s="4"/>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:10">
       <c r="A338" s="2"/>
       <c r="J338" s="4"/>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:10">
       <c r="A339" s="2"/>
       <c r="J339" s="4"/>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:10">
       <c r="A340" s="2"/>
       <c r="J340" s="4"/>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:10">
       <c r="A341" s="2"/>
       <c r="J341" s="4"/>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:10">
       <c r="A342" s="2"/>
       <c r="J342" s="4"/>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:10">
       <c r="A343" s="2"/>
       <c r="J343" s="4"/>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:10">
       <c r="A344" s="2"/>
       <c r="J344" s="4"/>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:10">
       <c r="A345" s="2"/>
       <c r="J345" s="4"/>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:10">
       <c r="A346" s="2"/>
       <c r="J346" s="4"/>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:10">
       <c r="A347" s="2"/>
       <c r="J347" s="4"/>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:10">
       <c r="A348" s="2"/>
       <c r="J348" s="4"/>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:10">
       <c r="A349" s="2"/>
       <c r="J349" s="4"/>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:10">
       <c r="A350" s="2"/>
       <c r="J350" s="4"/>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:10">
       <c r="A351" s="2"/>
       <c r="J351" s="4"/>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:10">
       <c r="A352" s="2"/>
       <c r="J352" s="4"/>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:10">
       <c r="A353" s="2"/>
       <c r="J353" s="4"/>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:10">
       <c r="A354" s="2"/>
       <c r="J354" s="4"/>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:10">
       <c r="A355" s="2"/>
       <c r="J355" s="4"/>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:10">
       <c r="A356" s="2"/>
       <c r="J356" s="4"/>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:10">
       <c r="A357" s="2"/>
       <c r="J357" s="4"/>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:10">
       <c r="A358" s="2"/>
       <c r="J358" s="4"/>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:10">
       <c r="A359" s="2"/>
       <c r="J359" s="4"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:10">
       <c r="A360" s="2"/>
       <c r="J360" s="4"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:10">
       <c r="A361" s="2"/>
       <c r="J361" s="4"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:10">
       <c r="A362" s="2"/>
       <c r="J362" s="4"/>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:10">
       <c r="A363" s="2"/>
       <c r="J363" s="4"/>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:10">
       <c r="A364" s="2"/>
       <c r="J364" s="4"/>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:10">
       <c r="A365" s="2"/>
       <c r="J365" s="4"/>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:10">
       <c r="A366" s="2"/>
       <c r="J366" s="4"/>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:10">
       <c r="A367" s="2"/>
       <c r="J367" s="4"/>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:10">
       <c r="A368" s="2"/>
       <c r="J368" s="4"/>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:10">
       <c r="A369" s="2"/>
       <c r="J369" s="4"/>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:10">
       <c r="A370" s="2"/>
       <c r="J370" s="4"/>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:10">
       <c r="A371" s="2"/>
       <c r="J371" s="4"/>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:10">
       <c r="A372" s="2"/>
       <c r="J372" s="4"/>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:10">
       <c r="A373" s="2"/>
       <c r="J373" s="4"/>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:10">
       <c r="A374" s="2"/>
       <c r="J374" s="4"/>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:10">
       <c r="A375" s="2"/>
       <c r="J375" s="4"/>
     </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:10">
       <c r="A376" s="2"/>
       <c r="J376" s="4"/>
     </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:10">
       <c r="A377" s="2"/>
       <c r="J377" s="4"/>
     </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:10">
       <c r="A378" s="2"/>
       <c r="J378" s="4"/>
     </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:10">
       <c r="A379" s="2"/>
       <c r="J379" s="4"/>
     </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:10">
       <c r="A380" s="2"/>
       <c r="J380" s="4"/>
     </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:10">
       <c r="A381" s="2"/>
       <c r="J381" s="4"/>
     </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:10">
       <c r="A382" s="2"/>
       <c r="J382" s="4"/>
     </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:10">
       <c r="A383" s="2"/>
       <c r="J383" s="4"/>
     </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:10">
       <c r="A384" s="2"/>
       <c r="J384" s="4"/>
     </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:10">
       <c r="A385" s="2"/>
       <c r="J385" s="4"/>
     </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:10">
       <c r="A386" s="2"/>
       <c r="J386" s="4"/>
     </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:10">
       <c r="A387" s="2"/>
       <c r="J387" s="4"/>
     </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:10">
       <c r="A388" s="2"/>
       <c r="J388" s="4"/>
     </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:10">
       <c r="A389" s="2"/>
       <c r="J389" s="4"/>
     </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:10">
       <c r="A390" s="2"/>
       <c r="J390" s="4"/>
     </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:10">
       <c r="A391" s="2"/>
       <c r="J391" s="4"/>
     </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:10">
       <c r="A392" s="2"/>
       <c r="J392" s="4"/>
     </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:10">
       <c r="A393" s="2"/>
       <c r="J393" s="4"/>
     </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:10">
       <c r="A394" s="2"/>
       <c r="J394" s="4"/>
     </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:10">
       <c r="A395" s="2"/>
       <c r="J395" s="4"/>
     </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:10">
       <c r="A396" s="2"/>
       <c r="J396" s="4"/>
     </row>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:10">
       <c r="A397" s="2"/>
       <c r="J397" s="4"/>
     </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:10">
       <c r="A398" s="2"/>
       <c r="J398" s="4"/>
     </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:10">
       <c r="A399" s="2"/>
       <c r="J399" s="4"/>
     </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:10">
       <c r="A400" s="2"/>
       <c r="J400" s="4"/>
     </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:10">
       <c r="A401" s="2"/>
       <c r="J401" s="4"/>
     </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:10">
       <c r="A402" s="2"/>
       <c r="J402" s="4"/>
     </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:10">
       <c r="A403" s="2"/>
       <c r="J403" s="4"/>
     </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:10">
       <c r="A404" s="2"/>
       <c r="J404" s="4"/>
     </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:10">
       <c r="A405" s="2"/>
       <c r="J405" s="4"/>
     </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:10">
       <c r="A406" s="2"/>
       <c r="J406" s="4"/>
     </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:10">
       <c r="A407" s="2"/>
       <c r="J407" s="4"/>
     </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:10">
       <c r="A408" s="2"/>
       <c r="J408" s="4"/>
     </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:10">
       <c r="A409" s="2"/>
       <c r="J409" s="4"/>
     </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:10">
       <c r="A410" s="2"/>
       <c r="J410" s="4"/>
     </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:10">
       <c r="A411" s="2"/>
       <c r="J411" s="4"/>
     </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:10">
       <c r="A412" s="2"/>
       <c r="J412" s="4"/>
     </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:10">
       <c r="A413" s="2"/>
       <c r="J413" s="4"/>
     </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:10">
       <c r="A414" s="2"/>
       <c r="J414" s="4"/>
     </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:10">
       <c r="A415" s="2"/>
       <c r="J415" s="4"/>
     </row>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:10">
       <c r="A416" s="2"/>
       <c r="J416" s="4"/>
     </row>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:10">
       <c r="A417" s="2"/>
       <c r="J417" s="4"/>
     </row>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:10">
       <c r="A418" s="2"/>
       <c r="J418" s="4"/>
     </row>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:10">
       <c r="A419" s="2"/>
       <c r="J419" s="4"/>
     </row>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:10">
       <c r="A420" s="2"/>
       <c r="J420" s="4"/>
     </row>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:10">
       <c r="A421" s="2"/>
       <c r="J421" s="4"/>
     </row>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:10">
       <c r="A422" s="2"/>
       <c r="J422" s="4"/>
     </row>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:10">
       <c r="A423" s="2"/>
       <c r="J423" s="4"/>
     </row>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:10">
       <c r="A424" s="2"/>
       <c r="J424" s="4"/>
     </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:10">
       <c r="A425" s="2"/>
       <c r="J425" s="4"/>
     </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:10">
       <c r="A426" s="2"/>
       <c r="J426" s="4"/>
     </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:10">
       <c r="A427" s="2"/>
       <c r="J427" s="4"/>
     </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:10">
       <c r="A428" s="2"/>
       <c r="J428" s="4"/>
     </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:10">
       <c r="A429" s="2"/>
       <c r="J429" s="4"/>
     </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:10">
       <c r="A430" s="2"/>
       <c r="J430" s="4"/>
     </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:10">
       <c r="A431" s="2"/>
       <c r="J431" s="4"/>
     </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:10">
       <c r="A432" s="2"/>
       <c r="J432" s="4"/>
     </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:10">
       <c r="A433" s="2"/>
       <c r="J433" s="4"/>
     </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:10">
       <c r="A434" s="2"/>
       <c r="J434" s="4"/>
     </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:10">
       <c r="A435" s="2"/>
       <c r="J435" s="4"/>
     </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:10">
       <c r="A436" s="2"/>
       <c r="J436" s="4"/>
     </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:10">
       <c r="A437" s="2"/>
       <c r="J437" s="4"/>
     </row>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:10">
       <c r="A438" s="2"/>
       <c r="J438" s="4"/>
     </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:10">
       <c r="A439" s="2"/>
       <c r="J439" s="4"/>
     </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:10">
       <c r="A440" s="2"/>
       <c r="J440" s="4"/>
     </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:10">
       <c r="A441" s="2"/>
       <c r="J441" s="4"/>
     </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:10">
       <c r="A442" s="2"/>
       <c r="J442" s="4"/>
     </row>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:10">
       <c r="A443" s="2"/>
       <c r="J443" s="4"/>
     </row>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:10">
       <c r="A444" s="2"/>
       <c r="J444" s="4"/>
     </row>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:10">
       <c r="A445" s="2"/>
       <c r="J445" s="4"/>
     </row>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:10">
       <c r="A446" s="2"/>
       <c r="J446" s="4"/>
     </row>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:10">
       <c r="A447" s="2"/>
       <c r="J447" s="4"/>
     </row>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:10">
       <c r="A448" s="2"/>
       <c r="J448" s="4"/>
     </row>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:10">
       <c r="A449" s="2"/>
       <c r="J449" s="4"/>
     </row>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:10">
       <c r="A450" s="2"/>
       <c r="J450" s="4"/>
     </row>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:10">
       <c r="A451" s="2"/>
       <c r="J451" s="4"/>
     </row>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:10">
       <c r="A452" s="2"/>
       <c r="J452" s="4"/>
     </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:10">
       <c r="A453" s="2"/>
       <c r="J453" s="4"/>
     </row>
-    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:10">
       <c r="A454" s="2"/>
       <c r="J454" s="4"/>
     </row>
-    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:10">
       <c r="A455" s="2"/>
       <c r="J455" s="4"/>
     </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:10">
       <c r="A456" s="2"/>
       <c r="J456" s="4"/>
     </row>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:10">
       <c r="A457" s="2"/>
       <c r="J457" s="4"/>
     </row>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:10">
       <c r="A458" s="2"/>
       <c r="J458" s="4"/>
     </row>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:10">
       <c r="A459" s="2"/>
       <c r="J459" s="4"/>
     </row>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:10">
       <c r="A460" s="2"/>
       <c r="J460" s="4"/>
     </row>
-    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:10">
       <c r="A461" s="2"/>
       <c r="J461" s="4"/>
     </row>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:10">
       <c r="A462" s="2"/>
       <c r="J462" s="4"/>
     </row>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:10">
       <c r="A463" s="2"/>
       <c r="J463" s="4"/>
     </row>
-    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:10">
       <c r="A464" s="2"/>
       <c r="J464" s="4"/>
     </row>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:10">
       <c r="A465" s="2"/>
       <c r="J465" s="4"/>
     </row>
-    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:10">
       <c r="A466" s="2"/>
       <c r="J466" s="4"/>
     </row>
-    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:10">
       <c r="A467" s="2"/>
       <c r="J467" s="4"/>
     </row>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:10">
       <c r="A468" s="2"/>
       <c r="J468" s="4"/>
     </row>
-    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:10">
       <c r="A469" s="2"/>
       <c r="J469" s="4"/>
     </row>
-    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:10">
       <c r="A470" s="2"/>
       <c r="J470" s="4"/>
     </row>
-    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:10">
       <c r="A471" s="2"/>
       <c r="J471" s="4"/>
     </row>
-    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:10">
       <c r="A472" s="2"/>
       <c r="J472" s="4"/>
     </row>
-    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:10">
       <c r="A473" s="2"/>
       <c r="J473" s="4"/>
     </row>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:10">
       <c r="A474" s="2"/>
       <c r="J474" s="4"/>
     </row>
-    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:10">
       <c r="A475" s="2"/>
       <c r="J475" s="4"/>
     </row>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:10">
       <c r="A476" s="2"/>
       <c r="J476" s="4"/>
     </row>
-    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" spans="1:10">
       <c r="A477" s="2"/>
       <c r="J477" s="4"/>
     </row>
-    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" spans="1:10">
       <c r="A478" s="2"/>
       <c r="J478" s="4"/>
     </row>
-    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" spans="1:10">
       <c r="A479" s="2"/>
       <c r="J479" s="4"/>
     </row>
-    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" spans="1:10">
       <c r="A480" s="2"/>
       <c r="J480" s="4"/>
     </row>
-    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" spans="1:10">
       <c r="A481" s="2"/>
       <c r="J481" s="4"/>
     </row>
-    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" spans="1:10">
       <c r="A482" s="2"/>
       <c r="J482" s="4"/>
     </row>
-    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" spans="1:10">
       <c r="A483" s="2"/>
       <c r="J483" s="4"/>
     </row>
-    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" spans="1:10">
       <c r="A484" s="2"/>
       <c r="J484" s="4"/>
     </row>
-    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" spans="1:10">
       <c r="A485" s="2"/>
       <c r="J485" s="4"/>
     </row>
-    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" spans="1:10">
       <c r="A486" s="2"/>
       <c r="J486" s="4"/>
     </row>
-    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" spans="1:10">
       <c r="A487" s="2"/>
       <c r="J487" s="4"/>
     </row>
-    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" spans="1:10">
       <c r="A488" s="2"/>
       <c r="J488" s="4"/>
     </row>
-    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" spans="1:10">
       <c r="A489" s="2"/>
       <c r="J489" s="4"/>
     </row>
-    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" spans="1:10">
       <c r="A490" s="2"/>
       <c r="J490" s="4"/>
     </row>
-    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" spans="1:10">
       <c r="A491" s="2"/>
       <c r="J491" s="4"/>
     </row>
-    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" spans="1:10">
       <c r="A492" s="2"/>
       <c r="J492" s="4"/>
     </row>
-    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" spans="1:10">
       <c r="A493" s="2"/>
       <c r="J493" s="4"/>
     </row>
-    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" spans="1:10">
       <c r="A494" s="2"/>
       <c r="J494" s="4"/>
     </row>
-    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" spans="1:10">
       <c r="A495" s="2"/>
       <c r="J495" s="4"/>
     </row>
-    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" spans="1:10">
       <c r="A496" s="2"/>
       <c r="J496" s="4"/>
     </row>
-    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" spans="1:10">
       <c r="A497" s="2"/>
       <c r="J497" s="4"/>
     </row>
-    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" spans="1:10">
       <c r="A498" s="2"/>
       <c r="J498" s="4"/>
     </row>
-    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" spans="1:10">
       <c r="A499" s="2"/>
       <c r="J499" s="4"/>
     </row>
-    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" spans="1:10">
       <c r="A500" s="2"/>
       <c r="J500" s="4"/>
     </row>
-    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" spans="1:10">
       <c r="A501" s="2"/>
       <c r="J501" s="4"/>
     </row>
-    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" spans="1:10">
       <c r="A502" s="2"/>
       <c r="J502" s="4"/>
     </row>
-    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" spans="1:10">
       <c r="A503" s="2"/>
       <c r="J503" s="4"/>
     </row>
-    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" spans="1:10">
       <c r="A504" s="2"/>
       <c r="J504" s="4"/>
     </row>
-    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" spans="1:10">
       <c r="A505" s="2"/>
       <c r="J505" s="4"/>
     </row>
-    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" spans="1:10">
       <c r="A506" s="2"/>
       <c r="J506" s="4"/>
     </row>
-    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" spans="1:10">
       <c r="A507" s="2"/>
       <c r="J507" s="4"/>
     </row>
-    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" spans="1:10">
       <c r="A508" s="2"/>
       <c r="J508" s="4"/>
     </row>
-    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" spans="1:10">
       <c r="A509" s="2"/>
       <c r="J509" s="4"/>
     </row>
-    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" spans="1:10">
       <c r="A510" s="2"/>
       <c r="J510" s="4"/>
     </row>
-    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" spans="1:10">
       <c r="A511" s="2"/>
       <c r="J511" s="4"/>
     </row>
-    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" spans="1:10">
       <c r="A512" s="2"/>
       <c r="J512" s="4"/>
     </row>
-    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" spans="1:10">
       <c r="A513" s="2"/>
       <c r="J513" s="4"/>
     </row>
-    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" spans="1:10">
       <c r="A514" s="2"/>
       <c r="J514" s="4"/>
     </row>
-    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" spans="1:10">
       <c r="A515" s="2"/>
       <c r="J515" s="4"/>
     </row>
-    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" spans="1:10">
       <c r="A516" s="2"/>
       <c r="J516" s="4"/>
     </row>
-    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" spans="1:10">
       <c r="A517" s="2"/>
       <c r="J517" s="4"/>
     </row>
-    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" spans="1:10">
       <c r="A518" s="2"/>
       <c r="J518" s="4"/>
     </row>
-    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" spans="1:10">
       <c r="A519" s="2"/>
       <c r="J519" s="4"/>
     </row>
-    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" spans="1:10">
       <c r="A520" s="2"/>
       <c r="J520" s="4"/>
     </row>
-    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" spans="1:10">
       <c r="A521" s="2"/>
       <c r="J521" s="4"/>
     </row>
-    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" spans="1:10">
       <c r="A522" s="2"/>
       <c r="J522" s="4"/>
     </row>
-    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" spans="1:10">
       <c r="A523" s="2"/>
       <c r="J523" s="4"/>
     </row>
-    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" spans="1:10">
       <c r="A524" s="2"/>
       <c r="J524" s="4"/>
     </row>
-    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" spans="1:10">
       <c r="A525" s="2"/>
       <c r="J525" s="4"/>
     </row>
-    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" spans="1:10">
       <c r="A526" s="2"/>
       <c r="J526" s="4"/>
     </row>
-    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" spans="1:10">
       <c r="A527" s="2"/>
       <c r="J527" s="4"/>
     </row>
-    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" spans="1:10">
       <c r="A528" s="2"/>
       <c r="J528" s="4"/>
     </row>
-    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" spans="1:10">
       <c r="A529" s="2"/>
       <c r="J529" s="4"/>
     </row>
-    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" spans="1:10">
       <c r="A530" s="2"/>
       <c r="J530" s="4"/>
     </row>
-    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" spans="1:10">
       <c r="A531" s="2"/>
       <c r="J531" s="4"/>
     </row>
-    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" spans="1:10">
       <c r="A532" s="2"/>
       <c r="J532" s="4"/>
     </row>
-    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" spans="1:10">
       <c r="A533" s="2"/>
       <c r="J533" s="4"/>
     </row>
-    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" spans="1:10">
       <c r="A534" s="2"/>
       <c r="J534" s="4"/>
     </row>
-    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" spans="1:10">
       <c r="A535" s="2"/>
       <c r="J535" s="4"/>
     </row>
-    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" spans="1:10">
       <c r="A536" s="2"/>
       <c r="J536" s="4"/>
     </row>
-    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" spans="1:10">
       <c r="A537" s="2"/>
       <c r="J537" s="4"/>
     </row>
-    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" spans="1:10">
       <c r="A538" s="2"/>
       <c r="J538" s="4"/>
     </row>
-    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" spans="1:10">
       <c r="A539" s="2"/>
       <c r="J539" s="4"/>
     </row>
-    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" spans="1:10">
       <c r="A540" s="2"/>
       <c r="J540" s="4"/>
     </row>
-    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" spans="1:10">
       <c r="A541" s="2"/>
       <c r="J541" s="4"/>
     </row>
-    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" spans="1:10">
       <c r="A542" s="2"/>
       <c r="J542" s="4"/>
     </row>
-    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" spans="1:10">
       <c r="A543" s="2"/>
       <c r="J543" s="4"/>
     </row>
-    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" spans="1:10">
       <c r="A544" s="2"/>
       <c r="J544" s="4"/>
     </row>
-    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" spans="1:10">
       <c r="A545" s="2"/>
       <c r="J545" s="4"/>
     </row>
-    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" spans="1:10">
       <c r="A546" s="2"/>
       <c r="J546" s="4"/>
     </row>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" spans="1:10">
       <c r="A547" s="2"/>
       <c r="J547" s="4"/>
     </row>
-    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" spans="1:10">
       <c r="A548" s="2"/>
       <c r="J548" s="4"/>
     </row>
-    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" spans="1:10">
       <c r="A549" s="2"/>
       <c r="J549" s="4"/>
     </row>
-    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" spans="1:10">
       <c r="A550" s="2"/>
       <c r="J550" s="4"/>
     </row>
-    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" spans="1:10">
       <c r="A551" s="2"/>
       <c r="J551" s="4"/>
     </row>
-    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" spans="1:10">
       <c r="A552" s="2"/>
       <c r="J552" s="4"/>
     </row>
-    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" spans="1:10">
       <c r="A553" s="2"/>
       <c r="J553" s="4"/>
     </row>
-    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" spans="1:10">
       <c r="A554" s="2"/>
       <c r="J554" s="4"/>
     </row>
-    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" spans="1:10">
       <c r="A555" s="2"/>
       <c r="J555" s="4"/>
     </row>
-    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" spans="1:10">
       <c r="A556" s="2"/>
       <c r="J556" s="4"/>
     </row>
-    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" spans="1:10">
       <c r="A557" s="2"/>
       <c r="J557" s="4"/>
     </row>
-    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" spans="1:10">
       <c r="A558" s="2"/>
       <c r="J558" s="4"/>
     </row>
-    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" spans="1:10">
       <c r="A559" s="2"/>
       <c r="J559" s="4"/>
     </row>
-    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" spans="1:10">
       <c r="A560" s="2"/>
       <c r="J560" s="4"/>
     </row>
-    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" spans="1:10">
       <c r="A561" s="2"/>
       <c r="J561" s="4"/>
     </row>
-    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" spans="1:10">
       <c r="A562" s="2"/>
       <c r="J562" s="4"/>
     </row>
-    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" spans="1:10">
       <c r="A563" s="2"/>
       <c r="J563" s="4"/>
     </row>
-    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" spans="1:10">
       <c r="A564" s="2"/>
       <c r="J564" s="4"/>
     </row>
-    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" spans="1:10">
       <c r="A565" s="2"/>
       <c r="J565" s="4"/>
     </row>
-    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" spans="1:10">
       <c r="A566" s="2"/>
       <c r="J566" s="4"/>
     </row>
-    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" spans="1:10">
       <c r="A567" s="2"/>
       <c r="J567" s="4"/>
     </row>
-    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" spans="1:10">
       <c r="A568" s="2"/>
       <c r="J568" s="4"/>
     </row>
-    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" spans="1:10">
       <c r="A569" s="2"/>
       <c r="J569" s="4"/>
     </row>
-    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" spans="1:10">
       <c r="A570" s="2"/>
       <c r="J570" s="4"/>
     </row>
-    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" spans="1:10">
       <c r="A571" s="2"/>
       <c r="J571" s="4"/>
     </row>
-    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" spans="1:10">
       <c r="A572" s="2"/>
       <c r="J572" s="4"/>
     </row>
-    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" spans="1:10">
       <c r="A573" s="2"/>
       <c r="J573" s="4"/>
     </row>
-    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" spans="1:10">
       <c r="A574" s="2"/>
       <c r="J574" s="4"/>
     </row>
-    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" spans="1:10">
       <c r="A575" s="2"/>
       <c r="J575" s="4"/>
     </row>
-    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" spans="1:10">
       <c r="A576" s="2"/>
       <c r="J576" s="4"/>
     </row>
-    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" spans="1:10">
       <c r="A577" s="2"/>
       <c r="J577" s="4"/>
     </row>
-    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" spans="1:10">
       <c r="A578" s="2"/>
       <c r="J578" s="4"/>
     </row>
-    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" spans="1:10">
       <c r="A579" s="2"/>
       <c r="J579" s="4"/>
     </row>
-    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" spans="1:10">
       <c r="A580" s="2"/>
       <c r="J580" s="4"/>
     </row>
-    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" spans="1:10">
       <c r="A581" s="2"/>
       <c r="J581" s="4"/>
     </row>
-    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" spans="1:10">
       <c r="A582" s="2"/>
       <c r="J582" s="4"/>
     </row>
-    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" spans="1:10">
       <c r="A583" s="2"/>
       <c r="J583" s="4"/>
     </row>
-    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" spans="1:10">
       <c r="A584" s="2"/>
       <c r="J584" s="4"/>
     </row>
-    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" spans="1:10">
       <c r="A585" s="2"/>
       <c r="J585" s="4"/>
     </row>
-    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" spans="1:10">
       <c r="A586" s="2"/>
       <c r="J586" s="4"/>
     </row>
-    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" spans="1:10">
       <c r="A587" s="2"/>
       <c r="J587" s="4"/>
     </row>
-    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" spans="1:10">
       <c r="A588" s="2"/>
       <c r="J588" s="4"/>
     </row>
-    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" spans="1:10">
       <c r="A589" s="2"/>
       <c r="J589" s="4"/>
     </row>
-    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" spans="1:10">
       <c r="A590" s="2"/>
       <c r="J590" s="4"/>
     </row>
-    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" spans="1:10">
       <c r="A591" s="2"/>
       <c r="J591" s="4"/>
     </row>
-    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" spans="1:10">
       <c r="A592" s="2"/>
       <c r="J592" s="4"/>
     </row>
-    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" spans="1:10">
       <c r="A593" s="2"/>
       <c r="J593" s="4"/>
     </row>
-    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" spans="1:10">
       <c r="A594" s="2"/>
       <c r="J594" s="4"/>
     </row>
-    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" spans="1:10">
       <c r="A595" s="2"/>
       <c r="J595" s="4"/>
     </row>
-    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" spans="1:10">
       <c r="A596" s="2"/>
       <c r="J596" s="4"/>
     </row>
-    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" spans="1:10">
       <c r="A597" s="2"/>
       <c r="J597" s="4"/>
     </row>
-    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" spans="1:10">
       <c r="A598" s="2"/>
       <c r="J598" s="4"/>
     </row>
-    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" spans="1:10">
       <c r="A599" s="2"/>
       <c r="J599" s="4"/>
     </row>
-    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" spans="1:10">
       <c r="A600" s="2"/>
       <c r="J600" s="4"/>
     </row>
-    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" spans="1:10">
       <c r="A601" s="2"/>
       <c r="J601" s="4"/>
     </row>
-    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" spans="1:10">
       <c r="A602" s="2"/>
       <c r="J602" s="4"/>
     </row>
-    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" spans="1:10">
       <c r="A603" s="2"/>
       <c r="J603" s="4"/>
     </row>
-    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" spans="1:10">
       <c r="A604" s="2"/>
       <c r="J604" s="4"/>
     </row>
-    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" spans="1:10">
       <c r="A605" s="2"/>
       <c r="J605" s="4"/>
     </row>
-    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" spans="1:10">
       <c r="A606" s="2"/>
       <c r="J606" s="4"/>
     </row>
-    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" spans="1:10">
       <c r="A607" s="2"/>
       <c r="J607" s="4"/>
     </row>
-    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" spans="1:10">
       <c r="A608" s="2"/>
       <c r="J608" s="4"/>
     </row>
-    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" spans="1:10">
       <c r="A609" s="2"/>
       <c r="J609" s="4"/>
     </row>
-    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" spans="1:10">
       <c r="A610" s="2"/>
       <c r="J610" s="4"/>
     </row>
-    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" spans="1:10">
       <c r="A611" s="2"/>
       <c r="J611" s="4"/>
     </row>
-    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" spans="1:10">
       <c r="A612" s="2"/>
       <c r="J612" s="4"/>
     </row>
-    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" spans="1:10">
       <c r="A613" s="2"/>
       <c r="J613" s="4"/>
     </row>
-    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" spans="1:10">
       <c r="A614" s="2"/>
       <c r="J614" s="4"/>
     </row>
-    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" spans="1:10">
       <c r="A615" s="2"/>
       <c r="J615" s="4"/>
     </row>
-    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" spans="1:10">
       <c r="A616" s="2"/>
       <c r="J616" s="4"/>
     </row>
-    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" spans="1:10">
       <c r="A617" s="2"/>
       <c r="J617" s="4"/>
     </row>
-    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" spans="1:10">
       <c r="A618" s="2"/>
       <c r="J618" s="4"/>
     </row>
-    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" spans="1:10">
       <c r="A619" s="2"/>
       <c r="J619" s="4"/>
     </row>
-    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" spans="1:10">
       <c r="A620" s="2"/>
       <c r="J620" s="4"/>
     </row>
-    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" spans="1:10">
       <c r="A621" s="2"/>
       <c r="J621" s="4"/>
     </row>
-    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" spans="1:10">
       <c r="A622" s="2"/>
       <c r="J622" s="4"/>
     </row>
-    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" spans="1:10">
       <c r="A623" s="2"/>
       <c r="J623" s="4"/>
     </row>
-    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" spans="1:10">
       <c r="A624" s="2"/>
       <c r="J624" s="4"/>
     </row>
-    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" spans="1:10">
       <c r="A625" s="2"/>
       <c r="J625" s="4"/>
     </row>
-    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" spans="1:10">
       <c r="A626" s="2"/>
       <c r="J626" s="4"/>
     </row>
-    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" spans="1:10">
       <c r="A627" s="2"/>
       <c r="J627" s="4"/>
     </row>
-    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" spans="1:10">
       <c r="A628" s="2"/>
       <c r="J628" s="4"/>
     </row>
-    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" spans="1:10">
       <c r="A629" s="2"/>
       <c r="J629" s="4"/>
     </row>
-    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" spans="1:10">
       <c r="A630" s="2"/>
       <c r="J630" s="4"/>
     </row>
-    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" spans="1:10">
       <c r="A631" s="2"/>
       <c r="J631" s="4"/>
     </row>
-    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" spans="1:10">
       <c r="A632" s="2"/>
       <c r="J632" s="4"/>
     </row>
-    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" spans="1:10">
       <c r="A633" s="2"/>
       <c r="J633" s="4"/>
     </row>
-    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" spans="1:10">
       <c r="A634" s="2"/>
       <c r="J634" s="4"/>
     </row>
-    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" spans="1:10">
       <c r="A635" s="2"/>
       <c r="J635" s="4"/>
     </row>
-    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" spans="1:10">
       <c r="A636" s="2"/>
       <c r="J636" s="4"/>
     </row>
-    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" spans="1:10">
       <c r="A637" s="2"/>
       <c r="J637" s="4"/>
     </row>
-    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" spans="1:10">
       <c r="A638" s="2"/>
       <c r="J638" s="4"/>
     </row>
-    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" spans="1:10">
       <c r="A639" s="2"/>
       <c r="J639" s="4"/>
     </row>
-    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" spans="1:10">
       <c r="A640" s="2"/>
       <c r="J640" s="4"/>
     </row>
-    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" spans="1:10">
       <c r="A641" s="2"/>
       <c r="J641" s="4"/>
     </row>
-    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" spans="1:10">
       <c r="A642" s="2"/>
       <c r="J642" s="4"/>
     </row>
-    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" spans="1:10">
       <c r="A643" s="2"/>
       <c r="J643" s="4"/>
     </row>
-    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" spans="1:10">
       <c r="A644" s="2"/>
       <c r="J644" s="4"/>
     </row>
-    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" spans="1:10">
       <c r="A645" s="2"/>
       <c r="J645" s="4"/>
     </row>
-    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" spans="1:10">
       <c r="A646" s="2"/>
       <c r="J646" s="4"/>
     </row>
-    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" spans="1:10">
       <c r="A647" s="2"/>
       <c r="J647" s="4"/>
     </row>
-    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" spans="1:10">
       <c r="A648" s="2"/>
       <c r="J648" s="4"/>
     </row>
-    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" spans="1:10">
       <c r="A649" s="2"/>
       <c r="J649" s="4"/>
     </row>
-    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" spans="1:10">
       <c r="A650" s="2"/>
       <c r="J650" s="4"/>
     </row>
-    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" spans="1:10">
       <c r="A651" s="2"/>
       <c r="J651" s="4"/>
     </row>
-    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" spans="1:10">
       <c r="A652" s="2"/>
       <c r="J652" s="4"/>
     </row>
-    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" spans="1:10">
       <c r="A653" s="2"/>
       <c r="J653" s="4"/>
     </row>
-    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" spans="1:10">
       <c r="A654" s="2"/>
       <c r="J654" s="4"/>
     </row>
-    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" spans="1:10">
       <c r="A655" s="2"/>
       <c r="J655" s="4"/>
     </row>
-    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" spans="1:10">
       <c r="A656" s="2"/>
       <c r="J656" s="4"/>
     </row>
-    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" spans="1:10">
       <c r="A657" s="2"/>
       <c r="J657" s="4"/>
     </row>
-    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" spans="1:10">
       <c r="A658" s="2"/>
       <c r="J658" s="4"/>
     </row>
-    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" spans="1:10">
       <c r="A659" s="2"/>
       <c r="J659" s="4"/>
     </row>
-    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" spans="1:10">
       <c r="A660" s="2"/>
       <c r="J660" s="4"/>
     </row>
-    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" spans="1:10">
       <c r="A661" s="2"/>
       <c r="J661" s="4"/>
     </row>
-    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" spans="1:10">
       <c r="A662" s="2"/>
       <c r="J662" s="4"/>
     </row>
-    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" spans="1:10">
       <c r="A663" s="2"/>
       <c r="J663" s="4"/>
     </row>
-    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" spans="1:10">
       <c r="A664" s="2"/>
       <c r="J664" s="4"/>
     </row>
-    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" spans="1:10">
       <c r="A665" s="2"/>
       <c r="J665" s="4"/>
     </row>
-    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" spans="1:10">
       <c r="A666" s="2"/>
       <c r="J666" s="4"/>
     </row>
-    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" spans="1:10">
       <c r="A667" s="2"/>
       <c r="J667" s="4"/>
     </row>
-    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" spans="1:10">
       <c r="A668" s="2"/>
       <c r="J668" s="4"/>
     </row>
-    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" spans="1:10">
       <c r="A669" s="2"/>
       <c r="J669" s="4"/>
     </row>
-    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" spans="1:10">
       <c r="A670" s="2"/>
       <c r="J670" s="4"/>
     </row>
-    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" spans="1:10">
       <c r="A671" s="2"/>
       <c r="J671" s="4"/>
     </row>
-    <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" spans="1:10">
       <c r="A672" s="2"/>
       <c r="J672" s="4"/>
     </row>
-    <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" spans="1:10">
       <c r="A673" s="2"/>
       <c r="J673" s="4"/>
     </row>
-    <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" spans="1:10">
       <c r="A674" s="2"/>
       <c r="J674" s="4"/>
     </row>
-    <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" spans="1:10">
       <c r="A675" s="2"/>
       <c r="J675" s="4"/>
     </row>
-    <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" spans="1:10">
       <c r="A676" s="2"/>
       <c r="J676" s="4"/>
     </row>
-    <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" spans="1:10">
       <c r="A677" s="2"/>
       <c r="J677" s="4"/>
     </row>
-    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" spans="1:10">
       <c r="A678" s="2"/>
       <c r="J678" s="4"/>
     </row>
-    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" spans="1:10">
       <c r="A679" s="2"/>
       <c r="J679" s="4"/>
     </row>
-    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" spans="1:10">
       <c r="A680" s="2"/>
       <c r="J680" s="4"/>
     </row>
-    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" spans="1:10">
       <c r="A681" s="2"/>
       <c r="J681" s="4"/>
     </row>
-    <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" spans="1:10">
       <c r="A682" s="2"/>
       <c r="J682" s="4"/>
     </row>
-    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" spans="1:10">
       <c r="A683" s="2"/>
       <c r="J683" s="4"/>
     </row>
-    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" spans="1:10">
       <c r="A684" s="2"/>
       <c r="J684" s="4"/>
     </row>
-    <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" spans="1:10">
       <c r="A685" s="2"/>
       <c r="J685" s="4"/>
     </row>
-    <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" spans="1:10">
       <c r="A686" s="2"/>
       <c r="J686" s="4"/>
     </row>
-    <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" spans="1:10">
       <c r="A687" s="2"/>
       <c r="J687" s="4"/>
     </row>
-    <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" spans="1:10">
       <c r="A688" s="2"/>
       <c r="J688" s="4"/>
     </row>
-    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" spans="1:10">
       <c r="A689" s="2"/>
       <c r="J689" s="4"/>
     </row>
-    <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" spans="1:10">
       <c r="A690" s="2"/>
       <c r="J690" s="4"/>
     </row>
-    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" spans="1:10">
       <c r="A691" s="2"/>
       <c r="J691" s="4"/>
     </row>
-    <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" spans="1:10">
       <c r="A692" s="2"/>
       <c r="J692" s="4"/>
     </row>
-    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" spans="1:10">
       <c r="A693" s="2"/>
       <c r="J693" s="4"/>
     </row>
-    <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" spans="1:10">
       <c r="A694" s="2"/>
       <c r="J694" s="4"/>
     </row>
-    <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" spans="1:10">
       <c r="A695" s="2"/>
       <c r="J695" s="4"/>
     </row>
-    <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" spans="1:10">
       <c r="A696" s="2"/>
       <c r="J696" s="4"/>
     </row>
-    <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" spans="1:10">
       <c r="A697" s="2"/>
       <c r="J697" s="4"/>
     </row>
-    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" spans="1:10">
       <c r="A698" s="2"/>
       <c r="J698" s="4"/>
     </row>
-    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" spans="1:10">
       <c r="A699" s="2"/>
       <c r="J699" s="4"/>
     </row>
-    <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" spans="1:10">
       <c r="A700" s="2"/>
       <c r="J700" s="4"/>
     </row>
-    <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" spans="1:10">
       <c r="A701" s="2"/>
       <c r="J701" s="4"/>
     </row>
-    <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" spans="1:10">
       <c r="A702" s="2"/>
       <c r="J702" s="4"/>
     </row>
-    <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" spans="1:10">
       <c r="A703" s="2"/>
       <c r="J703" s="4"/>
     </row>
-    <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" spans="1:10">
       <c r="A704" s="2"/>
       <c r="J704" s="4"/>
     </row>
-    <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" spans="1:10">
       <c r="A705" s="2"/>
       <c r="J705" s="4"/>
     </row>
-    <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" spans="1:10">
       <c r="A706" s="2"/>
       <c r="J706" s="4"/>
     </row>
-    <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" spans="1:10">
       <c r="A707" s="2"/>
       <c r="J707" s="4"/>
     </row>
-    <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" spans="1:10">
       <c r="A708" s="2"/>
       <c r="J708" s="4"/>
     </row>
-    <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" spans="1:10">
       <c r="A709" s="2"/>
       <c r="J709" s="4"/>
     </row>
-    <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" spans="1:10">
       <c r="A710" s="2"/>
       <c r="J710" s="4"/>
     </row>
-    <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" spans="1:10">
       <c r="A711" s="2"/>
       <c r="J711" s="4"/>
     </row>
-    <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" spans="1:10">
       <c r="A712" s="2"/>
       <c r="J712" s="4"/>
     </row>
-    <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" spans="1:10">
       <c r="A713" s="2"/>
       <c r="J713" s="4"/>
     </row>
-    <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" spans="1:10">
       <c r="A714" s="2"/>
       <c r="J714" s="4"/>
     </row>
-    <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" spans="1:10">
       <c r="A715" s="2"/>
       <c r="J715" s="4"/>
     </row>
-    <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" spans="1:10">
       <c r="A716" s="2"/>
       <c r="J716" s="4"/>
     </row>
-    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" spans="1:10">
       <c r="A717" s="2"/>
       <c r="J717" s="4"/>
     </row>
-    <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" spans="1:10">
       <c r="A718" s="2"/>
       <c r="J718" s="4"/>
     </row>
-    <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" spans="1:10">
       <c r="A719" s="2"/>
       <c r="J719" s="4"/>
     </row>
-    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" spans="1:10">
       <c r="A720" s="2"/>
       <c r="J720" s="4"/>
     </row>
-    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" spans="1:10">
       <c r="A721" s="2"/>
       <c r="J721" s="4"/>
     </row>
-    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" spans="1:10">
       <c r="A722" s="2"/>
       <c r="J722" s="4"/>
     </row>
-    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" spans="1:10">
       <c r="A723" s="2"/>
       <c r="J723" s="4"/>
     </row>
-    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" spans="1:10">
       <c r="A724" s="2"/>
       <c r="J724" s="4"/>
     </row>
-    <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" spans="1:10">
       <c r="A725" s="2"/>
       <c r="J725" s="4"/>
     </row>
-    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" spans="1:10">
       <c r="A726" s="2"/>
       <c r="J726" s="4"/>
     </row>
-    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" spans="1:10">
       <c r="A727" s="2"/>
       <c r="J727" s="4"/>
     </row>
-    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" spans="1:10">
       <c r="A728" s="2"/>
       <c r="J728" s="4"/>
     </row>
-    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" spans="1:10">
       <c r="A729" s="2"/>
       <c r="J729" s="4"/>
     </row>
-    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" spans="1:10">
       <c r="A730" s="2"/>
       <c r="J730" s="4"/>
     </row>
-    <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" spans="1:10">
       <c r="A731" s="2"/>
       <c r="J731" s="4"/>
     </row>
-    <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" spans="1:10">
       <c r="A732" s="2"/>
       <c r="J732" s="4"/>
     </row>
-    <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" spans="1:10">
       <c r="A733" s="2"/>
       <c r="J733" s="4"/>
     </row>
-    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" spans="1:10">
       <c r="A734" s="2"/>
       <c r="J734" s="4"/>
     </row>
-    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" spans="1:10">
       <c r="A735" s="2"/>
       <c r="J735" s="4"/>
     </row>
-    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" spans="1:10">
       <c r="A736" s="2"/>
       <c r="J736" s="4"/>
     </row>
-    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" spans="1:10">
       <c r="A737" s="2"/>
       <c r="J737" s="4"/>
     </row>
-    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" spans="1:10">
       <c r="A738" s="2"/>
       <c r="J738" s="4"/>
     </row>
-    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" spans="1:10">
       <c r="A739" s="2"/>
       <c r="J739" s="4"/>
     </row>
-    <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" spans="1:10">
       <c r="A740" s="2"/>
       <c r="J740" s="4"/>
     </row>
-    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" spans="1:10">
       <c r="A741" s="2"/>
       <c r="J741" s="4"/>
     </row>
-    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" spans="1:10">
       <c r="A742" s="2"/>
       <c r="J742" s="4"/>
     </row>
-    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" spans="1:10">
       <c r="A743" s="2"/>
       <c r="J743" s="4"/>
     </row>
-    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" spans="1:10">
       <c r="A744" s="2"/>
       <c r="J744" s="4"/>
     </row>
-    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" spans="1:10">
       <c r="A745" s="2"/>
       <c r="J745" s="4"/>
     </row>
-    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" spans="1:10">
       <c r="A746" s="2"/>
       <c r="J746" s="4"/>
     </row>
-    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" spans="1:10">
       <c r="A747" s="2"/>
       <c r="J747" s="4"/>
     </row>
-    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" spans="1:10">
       <c r="A748" s="2"/>
       <c r="J748" s="4"/>
     </row>
-    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" spans="1:10">
       <c r="A749" s="2"/>
       <c r="J749" s="4"/>
     </row>
-    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" spans="1:10">
       <c r="A750" s="2"/>
       <c r="J750" s="4"/>
     </row>
-    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" spans="1:10">
       <c r="A751" s="2"/>
       <c r="J751" s="4"/>
     </row>
-    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" spans="1:10">
       <c r="A752" s="2"/>
       <c r="J752" s="4"/>
     </row>
-    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" spans="1:10">
       <c r="A753" s="2"/>
       <c r="J753" s="4"/>
     </row>
-    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" spans="1:10">
       <c r="A754" s="2"/>
       <c r="J754" s="4"/>
     </row>
-    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" spans="1:10">
       <c r="A755" s="2"/>
       <c r="J755" s="4"/>
     </row>
-    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" spans="1:10">
       <c r="A756" s="2"/>
       <c r="J756" s="4"/>
     </row>
-    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" spans="1:10">
       <c r="A757" s="2"/>
       <c r="J757" s="4"/>
     </row>
-    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" spans="1:10">
       <c r="A758" s="2"/>
       <c r="J758" s="4"/>
     </row>
-    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" spans="1:10">
       <c r="A759" s="2"/>
       <c r="J759" s="4"/>
     </row>
-    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" spans="1:10">
       <c r="A760" s="2"/>
       <c r="J760" s="4"/>
     </row>
-    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" spans="1:10">
       <c r="A761" s="2"/>
       <c r="J761" s="4"/>
     </row>
-    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" spans="1:10">
       <c r="A762" s="2"/>
       <c r="J762" s="4"/>
     </row>
-    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" spans="1:10">
       <c r="A763" s="2"/>
       <c r="J763" s="4"/>
     </row>
-    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" spans="1:10">
       <c r="A764" s="2"/>
       <c r="J764" s="4"/>
     </row>
-    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" spans="1:10">
       <c r="A765" s="2"/>
       <c r="J765" s="4"/>
     </row>
-    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" spans="1:10">
       <c r="A766" s="2"/>
       <c r="J766" s="4"/>
     </row>
-    <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" spans="1:10">
       <c r="A767" s="2"/>
       <c r="J767" s="4"/>
     </row>
-    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" spans="1:10">
       <c r="A768" s="2"/>
       <c r="J768" s="4"/>
     </row>
-    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" spans="1:10">
       <c r="A769" s="2"/>
       <c r="J769" s="4"/>
     </row>
-    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" spans="1:10">
       <c r="A770" s="2"/>
       <c r="J770" s="4"/>
     </row>
-    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" spans="1:10">
       <c r="A771" s="2"/>
       <c r="J771" s="4"/>
     </row>
-    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" spans="1:10">
       <c r="A772" s="2"/>
       <c r="J772" s="4"/>
     </row>
-    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" spans="1:10">
       <c r="A773" s="2"/>
       <c r="J773" s="4"/>
     </row>
-    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" spans="1:10">
       <c r="A774" s="2"/>
       <c r="J774" s="4"/>
     </row>
-    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" spans="1:10">
       <c r="A775" s="2"/>
       <c r="J775" s="4"/>
     </row>
-    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" spans="1:10">
       <c r="A776" s="2"/>
       <c r="J776" s="4"/>
     </row>
-    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" spans="1:10">
       <c r="A777" s="2"/>
       <c r="J777" s="4"/>
     </row>
-    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" spans="1:10">
       <c r="A778" s="2"/>
       <c r="J778" s="4"/>
     </row>
-    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" spans="1:10">
       <c r="A779" s="2"/>
       <c r="J779" s="4"/>
     </row>
-    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" spans="1:10">
       <c r="A780" s="2"/>
       <c r="J780" s="4"/>
     </row>
-    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" spans="1:10">
       <c r="A781" s="2"/>
       <c r="J781" s="4"/>
     </row>
-    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" spans="1:10">
       <c r="A782" s="2"/>
       <c r="J782" s="4"/>
     </row>
-    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" spans="1:10">
       <c r="A783" s="2"/>
       <c r="J783" s="4"/>
     </row>
-    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" spans="1:10">
       <c r="A784" s="2"/>
       <c r="J784" s="4"/>
     </row>
-    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" spans="1:10">
       <c r="A785" s="2"/>
       <c r="J785" s="4"/>
     </row>
-    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" spans="1:10">
       <c r="A786" s="2"/>
       <c r="J786" s="4"/>
     </row>
-    <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" spans="1:10">
       <c r="A787" s="2"/>
       <c r="J787" s="4"/>
     </row>
-    <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" spans="1:10">
       <c r="A788" s="2"/>
       <c r="J788" s="4"/>
     </row>
-    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" spans="1:10">
       <c r="A789" s="2"/>
       <c r="J789" s="4"/>
     </row>
-    <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" spans="1:10">
       <c r="A790" s="2"/>
       <c r="J790" s="4"/>
     </row>
-    <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" spans="1:10">
       <c r="A791" s="2"/>
       <c r="J791" s="4"/>
     </row>
-    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" spans="1:10">
       <c r="A792" s="2"/>
       <c r="J792" s="4"/>
     </row>
-    <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" spans="1:10">
       <c r="A793" s="2"/>
       <c r="J793" s="4"/>
     </row>
-    <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" spans="1:10">
       <c r="A794" s="2"/>
       <c r="J794" s="4"/>
     </row>
-    <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" spans="1:10">
       <c r="A795" s="2"/>
       <c r="J795" s="4"/>
     </row>
-    <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" spans="1:10">
       <c r="A796" s="2"/>
       <c r="J796" s="4"/>
     </row>
-    <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" spans="1:10">
       <c r="A797" s="2"/>
       <c r="J797" s="4"/>
     </row>
-    <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" spans="1:10">
       <c r="A798" s="2"/>
       <c r="J798" s="4"/>
     </row>
-    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" spans="1:10">
       <c r="A799" s="2"/>
       <c r="J799" s="4"/>
     </row>
-    <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" spans="1:10">
       <c r="A800" s="2"/>
       <c r="J800" s="4"/>
     </row>
-    <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" spans="1:10">
       <c r="A801" s="2"/>
       <c r="J801" s="4"/>
     </row>
-    <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" spans="1:10">
       <c r="A802" s="2"/>
       <c r="J802" s="4"/>
     </row>
-    <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" spans="1:10">
       <c r="A803" s="2"/>
       <c r="J803" s="4"/>
     </row>
-    <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" spans="1:10">
       <c r="A804" s="2"/>
       <c r="J804" s="4"/>
     </row>
-    <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" spans="1:10">
       <c r="A805" s="2"/>
       <c r="J805" s="4"/>
     </row>
-    <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" spans="1:10">
       <c r="A806" s="2"/>
       <c r="J806" s="4"/>
     </row>
-    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" spans="1:10">
       <c r="A807" s="2"/>
       <c r="J807" s="4"/>
     </row>
-    <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" spans="1:10">
       <c r="A808" s="2"/>
       <c r="J808" s="4"/>
     </row>
-    <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" spans="1:10">
       <c r="A809" s="2"/>
       <c r="J809" s="4"/>
     </row>
-    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" spans="1:10">
       <c r="A810" s="2"/>
       <c r="J810" s="4"/>
     </row>
-    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" spans="1:10">
       <c r="A811" s="2"/>
       <c r="J811" s="4"/>
     </row>
-    <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" spans="1:10">
       <c r="A812" s="2"/>
       <c r="J812" s="4"/>
     </row>
-    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" spans="1:10">
       <c r="A813" s="2"/>
       <c r="J813" s="4"/>
     </row>
-    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" spans="1:10">
       <c r="A814" s="2"/>
       <c r="J814" s="4"/>
     </row>
-    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" spans="1:10">
       <c r="A815" s="2"/>
       <c r="J815" s="4"/>
     </row>
-    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" spans="1:10">
       <c r="A816" s="2"/>
       <c r="J816" s="4"/>
     </row>
-    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" spans="1:10">
       <c r="A817" s="2"/>
       <c r="J817" s="4"/>
     </row>
-    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" spans="1:10">
       <c r="A818" s="2"/>
       <c r="J818" s="4"/>
     </row>
-    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" spans="1:10">
       <c r="A819" s="2"/>
       <c r="J819" s="4"/>
     </row>
-    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" spans="1:10">
       <c r="A820" s="2"/>
       <c r="J820" s="4"/>
     </row>
-    <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" spans="1:10">
       <c r="A821" s="2"/>
       <c r="J821" s="4"/>
     </row>
-    <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" spans="1:10">
       <c r="A822" s="2"/>
       <c r="J822" s="4"/>
     </row>
-    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" spans="1:10">
       <c r="A823" s="2"/>
       <c r="J823" s="4"/>
     </row>
-    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" spans="1:10">
       <c r="A824" s="2"/>
       <c r="J824" s="4"/>
     </row>
-    <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" spans="1:10">
       <c r="A825" s="2"/>
       <c r="J825" s="4"/>
     </row>
-    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" spans="1:10">
       <c r="A826" s="2"/>
       <c r="J826" s="4"/>
     </row>
-    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" spans="1:10">
       <c r="A827" s="2"/>
       <c r="J827" s="4"/>
     </row>
-    <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" spans="1:10">
       <c r="A828" s="2"/>
       <c r="J828" s="4"/>
     </row>
-    <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" spans="1:10">
       <c r="A829" s="2"/>
       <c r="J829" s="4"/>
     </row>
-    <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" spans="1:10">
       <c r="A830" s="2"/>
       <c r="J830" s="4"/>
     </row>
-    <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" spans="1:10">
       <c r="A831" s="2"/>
       <c r="J831" s="4"/>
     </row>
-    <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" spans="1:10">
       <c r="A832" s="2"/>
       <c r="J832" s="4"/>
     </row>
-    <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" spans="1:10">
       <c r="A833" s="2"/>
       <c r="J833" s="4"/>
     </row>
-    <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" spans="1:10">
       <c r="A834" s="2"/>
       <c r="J834" s="4"/>
     </row>
-    <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" spans="1:10">
       <c r="A835" s="2"/>
       <c r="J835" s="4"/>
     </row>
-    <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" spans="1:10">
       <c r="A836" s="2"/>
       <c r="J836" s="4"/>
     </row>
-    <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" spans="1:10">
       <c r="A837" s="2"/>
       <c r="J837" s="4"/>
     </row>
-    <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" spans="1:10">
       <c r="A838" s="2"/>
       <c r="J838" s="4"/>
     </row>
-    <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" spans="1:10">
       <c r="A839" s="2"/>
       <c r="J839" s="4"/>
     </row>
-    <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" spans="1:10">
       <c r="A840" s="2"/>
       <c r="J840" s="4"/>
     </row>
-    <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" spans="1:10">
       <c r="A841" s="2"/>
       <c r="J841" s="4"/>
     </row>
-    <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" spans="1:10">
       <c r="A842" s="2"/>
       <c r="J842" s="4"/>
     </row>
-    <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" spans="1:10">
       <c r="A843" s="2"/>
       <c r="J843" s="4"/>
     </row>
-    <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" spans="1:10">
       <c r="A844" s="2"/>
       <c r="J844" s="4"/>
     </row>
-    <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" spans="1:10">
       <c r="A845" s="2"/>
       <c r="J845" s="4"/>
     </row>
-    <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" spans="1:10">
       <c r="A846" s="2"/>
       <c r="J846" s="4"/>
     </row>
-    <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" spans="1:10">
       <c r="A847" s="2"/>
       <c r="J847" s="4"/>
     </row>
-    <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" spans="1:10">
       <c r="A848" s="2"/>
       <c r="J848" s="4"/>
     </row>
-    <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" spans="1:10">
       <c r="A849" s="2"/>
       <c r="J849" s="4"/>
     </row>
-    <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" spans="1:10">
       <c r="A850" s="2"/>
       <c r="J850" s="4"/>
     </row>
-    <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" spans="1:10">
       <c r="A851" s="2"/>
       <c r="J851" s="4"/>
     </row>
-    <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" spans="1:10">
       <c r="A852" s="2"/>
       <c r="J852" s="4"/>
     </row>
-    <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" spans="1:10">
       <c r="A853" s="2"/>
       <c r="J853" s="4"/>
     </row>
-    <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" spans="1:10">
       <c r="A854" s="2"/>
       <c r="J854" s="4"/>
     </row>
-    <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" spans="1:10">
       <c r="A855" s="2"/>
       <c r="J855" s="4"/>
     </row>
-    <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" spans="1:10">
       <c r="A856" s="2"/>
       <c r="J856" s="4"/>
     </row>
-    <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" spans="1:10">
       <c r="A857" s="2"/>
       <c r="J857" s="4"/>
     </row>
-    <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" spans="1:10">
       <c r="A858" s="2"/>
       <c r="J858" s="4"/>
     </row>
-    <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" spans="1:10">
       <c r="A859" s="2"/>
       <c r="J859" s="4"/>
     </row>
-    <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" spans="1:10">
       <c r="A860" s="2"/>
       <c r="J860" s="4"/>
     </row>
-    <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" spans="1:10">
       <c r="A861" s="2"/>
       <c r="J861" s="4"/>
     </row>
-    <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" spans="1:10">
       <c r="A862" s="2"/>
       <c r="J862" s="4"/>
     </row>
-    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" spans="1:10">
       <c r="A863" s="2"/>
       <c r="J863" s="4"/>
     </row>
-    <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" spans="1:10">
       <c r="A864" s="2"/>
       <c r="J864" s="4"/>
     </row>
-    <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" spans="1:10">
       <c r="A865" s="2"/>
       <c r="J865" s="4"/>
     </row>
-    <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" spans="1:10">
       <c r="A866" s="2"/>
       <c r="J866" s="4"/>
     </row>
-    <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" spans="1:10">
       <c r="A867" s="2"/>
       <c r="J867" s="4"/>
     </row>
-    <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" spans="1:10">
       <c r="A868" s="2"/>
       <c r="J868" s="4"/>
     </row>
-    <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" spans="1:10">
       <c r="A869" s="2"/>
       <c r="J869" s="4"/>
     </row>
-    <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" spans="1:10">
       <c r="A870" s="2"/>
       <c r="J870" s="4"/>
     </row>
-    <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" spans="1:10">
       <c r="A871" s="2"/>
       <c r="J871" s="4"/>
     </row>
-    <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" spans="1:10">
       <c r="A872" s="2"/>
       <c r="J872" s="4"/>
     </row>
-    <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" spans="1:10">
       <c r="A873" s="2"/>
       <c r="J873" s="4"/>
     </row>
-    <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" spans="1:10">
       <c r="A874" s="2"/>
       <c r="J874" s="4"/>
     </row>
-    <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" spans="1:10">
       <c r="A875" s="2"/>
       <c r="J875" s="4"/>
     </row>
-    <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" spans="1:10">
       <c r="A876" s="2"/>
       <c r="J876" s="4"/>
     </row>
-    <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" spans="1:10">
       <c r="A877" s="2"/>
       <c r="J877" s="4"/>
     </row>
-    <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" spans="1:10">
       <c r="A878" s="2"/>
       <c r="J878" s="4"/>
     </row>
-    <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" spans="1:10">
       <c r="A879" s="2"/>
       <c r="J879" s="4"/>
     </row>
-    <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" spans="1:10">
       <c r="A880" s="2"/>
       <c r="J880" s="4"/>
     </row>
-    <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" spans="1:10">
       <c r="A881" s="2"/>
       <c r="J881" s="4"/>
     </row>
-    <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" spans="1:10">
       <c r="A882" s="2"/>
       <c r="J882" s="4"/>
     </row>
-    <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" spans="1:10">
       <c r="A883" s="2"/>
       <c r="J883" s="4"/>
     </row>
-    <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" spans="1:10">
       <c r="A884" s="2"/>
       <c r="J884" s="4"/>
     </row>
-    <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" spans="1:10">
       <c r="A885" s="2"/>
       <c r="J885" s="4"/>
     </row>
-    <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" spans="1:10">
       <c r="A886" s="2"/>
       <c r="J886" s="4"/>
     </row>
-    <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" spans="1:10">
       <c r="A887" s="2"/>
       <c r="J887" s="4"/>
     </row>
-    <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" spans="1:10">
       <c r="A888" s="2"/>
       <c r="J888" s="4"/>
     </row>
-    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" spans="1:10">
       <c r="A889" s="2"/>
       <c r="J889" s="4"/>
     </row>
-    <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" spans="1:10">
       <c r="A890" s="2"/>
       <c r="J890" s="4"/>
     </row>
-    <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" spans="1:10">
       <c r="A891" s="2"/>
       <c r="J891" s="4"/>
     </row>
-    <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" spans="1:10">
       <c r="A892" s="2"/>
       <c r="J892" s="4"/>
     </row>
-    <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" spans="1:10">
       <c r="A893" s="2"/>
       <c r="J893" s="4"/>
     </row>
-    <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" spans="1:10">
       <c r="A894" s="2"/>
       <c r="J894" s="4"/>
     </row>
-    <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" spans="1:10">
       <c r="A895" s="2"/>
       <c r="J895" s="4"/>
     </row>
-    <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" spans="1:10">
       <c r="A896" s="2"/>
       <c r="J896" s="4"/>
     </row>
-    <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" spans="1:10">
       <c r="A897" s="2"/>
       <c r="J897" s="4"/>
     </row>
-    <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" spans="1:10">
       <c r="A898" s="2"/>
       <c r="J898" s="4"/>
     </row>
-    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" spans="1:10">
       <c r="A899" s="2"/>
       <c r="J899" s="4"/>
     </row>
-    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" spans="1:10">
       <c r="A900" s="2"/>
       <c r="J900" s="4"/>
     </row>
-    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" spans="1:10">
       <c r="A901" s="2"/>
       <c r="J901" s="4"/>
     </row>
-    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" spans="1:10">
       <c r="A902" s="2"/>
       <c r="J902" s="4"/>
     </row>
-    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" spans="1:10">
       <c r="A903" s="2"/>
       <c r="J903" s="4"/>
     </row>
-    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" spans="1:10">
       <c r="A904" s="2"/>
       <c r="J904" s="4"/>
     </row>
-    <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" spans="1:10">
       <c r="A905" s="2"/>
       <c r="J905" s="4"/>
     </row>
-    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" spans="1:10">
       <c r="A906" s="2"/>
       <c r="J906" s="4"/>
     </row>
-    <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" spans="1:10">
       <c r="A907" s="2"/>
       <c r="J907" s="4"/>
     </row>
-    <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" spans="1:10">
       <c r="A908" s="2"/>
       <c r="J908" s="4"/>
     </row>
-    <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" spans="1:10">
       <c r="A909" s="2"/>
       <c r="J909" s="4"/>
     </row>
-    <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" spans="1:10">
       <c r="A910" s="2"/>
       <c r="J910" s="4"/>
     </row>
-    <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" spans="1:10">
       <c r="A911" s="2"/>
       <c r="J911" s="4"/>
     </row>
-    <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" spans="1:10">
       <c r="A912" s="2"/>
       <c r="J912" s="4"/>
     </row>
-    <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" spans="1:10">
       <c r="A913" s="2"/>
       <c r="J913" s="4"/>
     </row>
-    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" spans="1:10">
       <c r="A914" s="2"/>
       <c r="J914" s="4"/>
     </row>
-    <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" spans="1:10">
       <c r="A915" s="2"/>
       <c r="J915" s="4"/>
     </row>
-    <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" spans="1:10">
       <c r="A916" s="2"/>
       <c r="J916" s="4"/>
     </row>
-    <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" spans="1:10">
       <c r="A917" s="2"/>
       <c r="J917" s="4"/>
     </row>
-    <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" spans="1:10">
       <c r="A918" s="2"/>
       <c r="J918" s="4"/>
     </row>
-    <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" spans="1:10">
       <c r="A919" s="2"/>
       <c r="J919" s="4"/>
     </row>
-    <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" spans="1:10">
       <c r="A920" s="2"/>
       <c r="J920" s="4"/>
     </row>
-    <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" spans="1:10">
       <c r="A921" s="2"/>
       <c r="J921" s="4"/>
     </row>
-    <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" spans="1:10">
       <c r="A922" s="2"/>
       <c r="J922" s="4"/>
     </row>
-    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" spans="1:10">
       <c r="A923" s="2"/>
       <c r="J923" s="4"/>
     </row>
-    <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" spans="1:10">
       <c r="A924" s="2"/>
       <c r="J924" s="4"/>
     </row>
-    <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" spans="1:10">
       <c r="A925" s="2"/>
       <c r="J925" s="4"/>
     </row>
-    <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" spans="1:10">
       <c r="A926" s="2"/>
       <c r="J926" s="4"/>
     </row>
-    <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" spans="1:10">
       <c r="A927" s="2"/>
       <c r="J927" s="4"/>
     </row>
-    <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" spans="1:10">
       <c r="A928" s="2"/>
       <c r="J928" s="4"/>
     </row>
-    <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" spans="1:10">
       <c r="A929" s="2"/>
       <c r="J929" s="4"/>
     </row>
-    <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" spans="1:10">
       <c r="A930" s="2"/>
       <c r="J930" s="4"/>
     </row>
-    <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" spans="1:10">
       <c r="A931" s="2"/>
       <c r="J931" s="4"/>
     </row>
-    <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" spans="1:10">
       <c r="A932" s="2"/>
       <c r="J932" s="4"/>
     </row>
-    <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" spans="1:10">
       <c r="A933" s="2"/>
       <c r="J933" s="4"/>
     </row>
-    <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" spans="1:10">
       <c r="A934" s="2"/>
       <c r="J934" s="4"/>
     </row>
-    <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" spans="1:10">
       <c r="A935" s="2"/>
       <c r="J935" s="4"/>
     </row>
-    <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" spans="1:10">
       <c r="A936" s="2"/>
       <c r="J936" s="4"/>
     </row>
-    <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" spans="1:10">
       <c r="A937" s="2"/>
       <c r="J937" s="4"/>
     </row>
-    <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" spans="1:10">
       <c r="A938" s="2"/>
       <c r="J938" s="4"/>
     </row>
-    <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" spans="1:10">
       <c r="A939" s="2"/>
       <c r="J939" s="4"/>
     </row>
-    <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" spans="1:10">
       <c r="A940" s="2"/>
       <c r="J940" s="4"/>
     </row>
-    <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" spans="1:10">
       <c r="A941" s="2"/>
       <c r="J941" s="4"/>
     </row>
-    <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" spans="1:10">
       <c r="A942" s="2"/>
       <c r="J942" s="4"/>
     </row>
-    <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" spans="1:10">
       <c r="A943" s="2"/>
       <c r="J943" s="4"/>
     </row>
-    <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" spans="1:10">
       <c r="A944" s="2"/>
       <c r="J944" s="4"/>
     </row>
-    <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" spans="1:10">
       <c r="A945" s="2"/>
       <c r="J945" s="4"/>
     </row>
-    <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" spans="1:10">
       <c r="A946" s="2"/>
       <c r="J946" s="4"/>
     </row>
-    <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" spans="1:10">
       <c r="A947" s="2"/>
       <c r="J947" s="4"/>
     </row>
-    <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" spans="1:10">
       <c r="A948" s="2"/>
       <c r="J948" s="4"/>
     </row>
-    <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" spans="1:10">
       <c r="A949" s="2"/>
       <c r="J949" s="4"/>
     </row>
-    <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" spans="1:10">
       <c r="A950" s="2"/>
       <c r="J950" s="4"/>
     </row>
-    <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" spans="1:10">
       <c r="A951" s="2"/>
       <c r="J951" s="4"/>
     </row>
-    <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" spans="1:10">
       <c r="A952" s="2"/>
       <c r="J952" s="4"/>
     </row>
-    <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" spans="1:10">
       <c r="A953" s="2"/>
       <c r="J953" s="4"/>
     </row>
-    <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" spans="1:10">
       <c r="A954" s="2"/>
       <c r="J954" s="4"/>
     </row>
-    <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" spans="1:10">
       <c r="A955" s="2"/>
       <c r="J955" s="4"/>
     </row>
-    <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" spans="1:10">
       <c r="A956" s="2"/>
       <c r="J956" s="4"/>
     </row>
-    <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" spans="1:10">
       <c r="A957" s="2"/>
       <c r="J957" s="4"/>
     </row>
-    <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" spans="1:10">
       <c r="A958" s="2"/>
       <c r="J958" s="4"/>
     </row>
-    <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" spans="1:10">
       <c r="A959" s="2"/>
       <c r="J959" s="4"/>
     </row>
-    <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" spans="1:10">
       <c r="A960" s="2"/>
       <c r="J960" s="4"/>
     </row>
-    <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" spans="1:10">
       <c r="A961" s="2"/>
       <c r="J961" s="4"/>
     </row>
-    <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" spans="1:10">
       <c r="A962" s="2"/>
       <c r="J962" s="4"/>
     </row>
-    <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" spans="1:10">
       <c r="A963" s="2"/>
       <c r="J963" s="4"/>
     </row>
-    <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" spans="1:10">
       <c r="A964" s="2"/>
       <c r="J964" s="4"/>
     </row>
-    <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" spans="1:10">
       <c r="A965" s="2"/>
       <c r="J965" s="4"/>
     </row>
-    <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" spans="1:10">
       <c r="A966" s="2"/>
       <c r="J966" s="4"/>
     </row>
-    <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="967" spans="1:10">
       <c r="A967" s="2"/>
       <c r="J967" s="4"/>
     </row>
-    <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" spans="1:10">
       <c r="A968" s="2"/>
       <c r="J968" s="4"/>
     </row>
-    <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" spans="1:10">
       <c r="A969" s="2"/>
       <c r="J969" s="4"/>
     </row>
-    <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" spans="1:10">
       <c r="A970" s="2"/>
       <c r="J970" s="4"/>
     </row>
-    <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" spans="1:10">
       <c r="A971" s="2"/>
       <c r="J971" s="4"/>
     </row>
-    <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" spans="1:10">
       <c r="A972" s="2"/>
       <c r="J972" s="4"/>
     </row>
-    <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" spans="1:10">
       <c r="A973" s="2"/>
       <c r="J973" s="4"/>
     </row>
-    <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" spans="1:10">
       <c r="A974" s="2"/>
       <c r="J974" s="4"/>
     </row>
-    <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="975" spans="1:10">
       <c r="A975" s="2"/>
       <c r="J975" s="4"/>
     </row>
-    <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="976" spans="1:10">
       <c r="A976" s="2"/>
       <c r="J976" s="4"/>
     </row>
-    <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="977" spans="1:10">
       <c r="A977" s="2"/>
       <c r="J977" s="4"/>
     </row>
-    <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" spans="1:10">
       <c r="A978" s="2"/>
       <c r="J978" s="4"/>
     </row>
-    <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" spans="1:10">
       <c r="A979" s="2"/>
       <c r="J979" s="4"/>
     </row>
-    <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" spans="1:10">
       <c r="A980" s="2"/>
       <c r="J980" s="4"/>
     </row>
-    <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="981" spans="1:10">
       <c r="A981" s="2"/>
       <c r="J981" s="4"/>
     </row>
-    <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" spans="1:10">
       <c r="A982" s="2"/>
       <c r="J982" s="4"/>
     </row>
-    <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" spans="1:10">
       <c r="A983" s="2"/>
       <c r="J983" s="4"/>
     </row>
-    <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" spans="1:10">
       <c r="A984" s="2"/>
       <c r="J984" s="4"/>
     </row>
-    <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" spans="1:10">
       <c r="A985" s="2"/>
       <c r="J985" s="4"/>
     </row>
-    <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="986" spans="1:10">
       <c r="A986" s="2"/>
       <c r="J986" s="4"/>
     </row>
-    <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" spans="1:10">
       <c r="A987" s="2"/>
       <c r="J987" s="4"/>
     </row>
-    <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" spans="1:10">
       <c r="A988" s="2"/>
       <c r="J988" s="4"/>
     </row>
-    <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" spans="1:10">
       <c r="A989" s="2"/>
       <c r="J989" s="4"/>
     </row>
-    <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" spans="1:10">
       <c r="A990" s="2"/>
       <c r="J990" s="4"/>
     </row>
-    <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" spans="1:10">
       <c r="A991" s="2"/>
       <c r="J991" s="4"/>
     </row>
-    <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" spans="1:10">
       <c r="A992" s="2"/>
       <c r="J992" s="4"/>
     </row>
-    <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" spans="1:10">
       <c r="A993" s="2"/>
       <c r="J993" s="4"/>
     </row>
-    <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="994" spans="1:10">
       <c r="A994" s="2"/>
       <c r="J994" s="4"/>
     </row>
-    <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="995" spans="1:10">
       <c r="A995" s="2"/>
       <c r="J995" s="4"/>
     </row>
-    <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="996" spans="1:10">
       <c r="A996" s="2"/>
       <c r="J996" s="4"/>
     </row>
-    <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="997" spans="1:10">
       <c r="A997" s="2"/>
       <c r="J997" s="4"/>
     </row>
-    <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="998" spans="1:10">
       <c r="A998" s="2"/>
       <c r="J998" s="4"/>
     </row>
-    <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="999" spans="1:10">
       <c r="A999" s="2"/>
       <c r="J999" s="4"/>
     </row>
-    <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1000" spans="1:10">
       <c r="A1000" s="2"/>
       <c r="J1000" s="4"/>
     </row>
-    <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1001" spans="1:10">
       <c r="A1001" s="2"/>
       <c r="J1001" s="4"/>
     </row>
-    <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1002" spans="1:10">
       <c r="A1002" s="2"/>
       <c r="J1002" s="4"/>
     </row>
-    <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1003" spans="1:10">
       <c r="A1003" s="2"/>
       <c r="J1003" s="4"/>
     </row>
-    <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1004" spans="1:10">
       <c r="A1004" s="2"/>
       <c r="J1004" s="4"/>
     </row>
-    <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1005" spans="1:10">
       <c r="A1005" s="2"/>
       <c r="J1005" s="4"/>
     </row>
-    <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1006" spans="1:10">
       <c r="A1006" s="2"/>
       <c r="J1006" s="4"/>
     </row>
-    <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1007" spans="1:10">
       <c r="A1007" s="2"/>
       <c r="J1007" s="4"/>
     </row>
-    <row r="1008" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1008" spans="1:10">
       <c r="A1008" s="2"/>
       <c r="J1008" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K14">
-    <cfRule type="top10" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="1" text="" dxfId="0"/>
+    <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>26300</v>
+      </c>
+      <c r="F2">
+        <v>0.9</v>
+      </c>
+      <c r="G2">
+        <f>PRODUCT(B2:D2)</f>
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>500</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E3">
         <v>26300</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F3">
         <v>0.9</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">PRODUCT(B2:D2)</f>
+      <c r="G3">
+        <f>PRODUCT(B3:D3)</f>
         <v>24</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H3">
         <v>500</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E4">
         <v>26300</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F4">
         <v>0.9</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">PRODUCT(B3:D3)</f>
+      <c r="G4">
+        <f>PRODUCT(B4:D4)</f>
         <v>24</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H4">
         <v>500</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>26300</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">PRODUCT(B4:D4)</f>
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9">
       <c r="H13" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="13:13">
       <c r="M28" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>